--- a/formatted/candidates/100-400/candidates.xlsx
+++ b/formatted/candidates/100-400/candidates.xlsx
@@ -5,25 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/superyachtcrew.apps/apps/api/private/data/tmp/100-400/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/nj.migration/formatted/candidates/100-400/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE83BC9-60B4-3A4E-A619-C997F6951300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E58DAA-E313-D94B-BA94-49D4B537B065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40760" windowHeight="28200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="55960" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Positions" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$401</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4318" uniqueCount="2001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4439" uniqueCount="2119">
   <si>
     <t>gender</t>
   </si>
@@ -6026,13 +6040,367 @@
   </si>
   <si>
     <t>Founder &amp; Creative Director</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>1st Engineer</t>
+  </si>
+  <si>
+    <t>First engineer</t>
+  </si>
+  <si>
+    <t>1st Officer</t>
+  </si>
+  <si>
+    <t>First Officer</t>
+  </si>
+  <si>
+    <t>2nd Engineer</t>
+  </si>
+  <si>
+    <t>Second Engineer</t>
+  </si>
+  <si>
+    <t>2nd Eng</t>
+  </si>
+  <si>
+    <t>1st Mate</t>
+  </si>
+  <si>
+    <t>Chief Mate</t>
+  </si>
+  <si>
+    <t>First Mate</t>
+  </si>
+  <si>
+    <t>2nd Officer</t>
+  </si>
+  <si>
+    <t>Second Officer</t>
+  </si>
+  <si>
+    <t>2nd Steward(ess)</t>
+  </si>
+  <si>
+    <t>2nd Stewardess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd Stewardess </t>
+  </si>
+  <si>
+    <t>Second Stewardess</t>
+  </si>
+  <si>
+    <t>2nd Steward</t>
+  </si>
+  <si>
+    <t>3rd Engineer</t>
+  </si>
+  <si>
+    <t>Third Engineer</t>
+  </si>
+  <si>
+    <t>3rd Officer</t>
+  </si>
+  <si>
+    <t>Third Officer</t>
+  </si>
+  <si>
+    <t>3rd Steward(ess)</t>
+  </si>
+  <si>
+    <t>3rd Stewardess</t>
+  </si>
+  <si>
+    <t>4th Engineer</t>
+  </si>
+  <si>
+    <t>AV / IT</t>
+  </si>
+  <si>
+    <t>Bosun</t>
+  </si>
+  <si>
+    <t>Bosun/Mate</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>Captain | Private</t>
+  </si>
+  <si>
+    <t>Capt</t>
+  </si>
+  <si>
+    <t>Boat Captain</t>
+  </si>
+  <si>
+    <t>Yacht Captain</t>
+  </si>
+  <si>
+    <t>Junior Captain</t>
+  </si>
+  <si>
+    <t>Captain / Engineer</t>
+  </si>
+  <si>
+    <t>Chase Boat Captain</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t>Chief Engineer</t>
+  </si>
+  <si>
+    <t>Chief Eng</t>
+  </si>
+  <si>
+    <t>Chief Officer</t>
+  </si>
+  <si>
+    <t>Chief Oﬀicer</t>
+  </si>
+  <si>
+    <t>Ch. Officer</t>
+  </si>
+  <si>
+    <t>Chief Oﬃcer</t>
+  </si>
+  <si>
+    <t>Chief Steward(ess)</t>
+  </si>
+  <si>
+    <t>Chief Steward</t>
+  </si>
+  <si>
+    <t>Chief Stewardess</t>
+  </si>
+  <si>
+    <t>Chief Stew</t>
+  </si>
+  <si>
+    <t>Crew Chef / Cook</t>
+  </si>
+  <si>
+    <t>Crew Cook</t>
+  </si>
+  <si>
+    <t>Crew Chef</t>
+  </si>
+  <si>
+    <t>Deck / Engineer</t>
+  </si>
+  <si>
+    <t>Deck/Engineer</t>
+  </si>
+  <si>
+    <t>Deckhand</t>
+  </si>
+  <si>
+    <t>Deck Hand</t>
+  </si>
+  <si>
+    <t>Deckhand | Private</t>
+  </si>
+  <si>
+    <t>Sole deckhand</t>
+  </si>
+  <si>
+    <t>Deckhand / Carpenter</t>
+  </si>
+  <si>
+    <t>Deckhand / Dive Instructor</t>
+  </si>
+  <si>
+    <t>Dive Instructor</t>
+  </si>
+  <si>
+    <t>Deckhand / Fishing Guide</t>
+  </si>
+  <si>
+    <t>Deckhand / Personal Trainer</t>
+  </si>
+  <si>
+    <t>Deckhand / Security Guard</t>
+  </si>
+  <si>
+    <t>Deckhand / Watersports Instructor</t>
+  </si>
+  <si>
+    <t>Engineer (unlicensed)</t>
+  </si>
+  <si>
+    <t>Estate Chef</t>
+  </si>
+  <si>
+    <t>Estate Management</t>
+  </si>
+  <si>
+    <t>Estate Steward(ess)</t>
+  </si>
+  <si>
+    <t>ETO</t>
+  </si>
+  <si>
+    <t>Galley Hand</t>
+  </si>
+  <si>
+    <t>Head Chef / Executive Chef</t>
+  </si>
+  <si>
+    <t>Head Chef</t>
+  </si>
+  <si>
+    <t>Executive Chef</t>
+  </si>
+  <si>
+    <t>Head of Housekeeping</t>
+  </si>
+  <si>
+    <t>Head of Service</t>
+  </si>
+  <si>
+    <t>Housekeeping Steward(ess)</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
+  </si>
+  <si>
+    <t>Housekeeper</t>
+  </si>
+  <si>
+    <t>Junior Steward(ess)</t>
+  </si>
+  <si>
+    <t>Laundry Steward(ess)</t>
+  </si>
+  <si>
+    <t>Lead Deckhand</t>
+  </si>
+  <si>
+    <t>LEAD DECK</t>
+  </si>
+  <si>
+    <t>Mate</t>
+  </si>
+  <si>
+    <t>Motorman</t>
+  </si>
+  <si>
+    <t>Purser</t>
+  </si>
+  <si>
+    <t>Scientific Technical Officer / ITO</t>
+  </si>
+  <si>
+    <t>Security Officer</t>
+  </si>
+  <si>
+    <t>Service Steward(ess)</t>
+  </si>
+  <si>
+    <t>Service Stewardess</t>
+  </si>
+  <si>
+    <t>Sole Chef</t>
+  </si>
+  <si>
+    <t>Sole Engineer</t>
+  </si>
+  <si>
+    <t>Sole Steward(ess)</t>
+  </si>
+  <si>
+    <t>Sole Stewardess</t>
+  </si>
+  <si>
+    <t>Solo Stewardess</t>
+  </si>
+  <si>
+    <t>Sous chef</t>
+  </si>
+  <si>
+    <t>Spa Manager</t>
+  </si>
+  <si>
+    <t>Stew / Cook</t>
+  </si>
+  <si>
+    <t>Stew / Deck</t>
+  </si>
+  <si>
+    <t>Steward(ess)</t>
+  </si>
+  <si>
+    <t>Steward</t>
+  </si>
+  <si>
+    <t>Stewardess</t>
+  </si>
+  <si>
+    <t>Stewardess | Private</t>
+  </si>
+  <si>
+    <t>Junior Stewardess</t>
+  </si>
+  <si>
+    <t>Steward(ess) / Beautician</t>
+  </si>
+  <si>
+    <t>Beauty Therapist</t>
+  </si>
+  <si>
+    <t>Steward(ess) / Galley Hand</t>
+  </si>
+  <si>
+    <t>Steward(ess) / Hairdresser</t>
+  </si>
+  <si>
+    <t>Steward(ess) / Masseuse</t>
+  </si>
+  <si>
+    <t>Massage Therapist</t>
+  </si>
+  <si>
+    <t>Masseuse</t>
+  </si>
+  <si>
+    <t>Steward(ess) / Nanny</t>
+  </si>
+  <si>
+    <t>Nanny</t>
+  </si>
+  <si>
+    <t>Steward(ess) / Nurse</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Steward(ess) / Personal Trainer</t>
+  </si>
+  <si>
+    <t>Steward(ess) / Yoga Pilates</t>
+  </si>
+  <si>
+    <t>Wiper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6062,8 +6430,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6074,6 +6449,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -6104,7 +6485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6114,9 +6495,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6132,6 +6515,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4DDDE81-93E4-1A45-B501-B1B237DB9ACE}" name="Table1" displayName="Table1" ref="A1:B120" totalsRowShown="0">
+  <autoFilter ref="A1:B120" xr:uid="{A1A548A8-1E4D-FB4E-914F-1146ED276DAF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E9B7C34D-E9C9-7543-A159-217C4E5CF568}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{BD567C24-114D-9146-968C-16705C58D0D5}" name="Position"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6421,7 +6815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
@@ -6437,8 +6831,8 @@
     <col min="8" max="8" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="51.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="76.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="76.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.5" style="4" customWidth="1"/>
     <col min="15" max="15" width="32" bestFit="1" customWidth="1"/>
@@ -6479,10 +6873,10 @@
       <c r="J1" s="1" t="s">
         <v>1719</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>1843</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>1843</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -6532,7 +6926,7 @@
       <c r="J2" t="s">
         <v>1768</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="M2">
@@ -6708,7 +7102,7 @@
       <c r="H6" s="4" t="s">
         <v>1850</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="9">
         <v>15</v>
       </c>
       <c r="M6">
@@ -6755,7 +7149,7 @@
       <c r="J7" t="s">
         <v>1769</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="9">
         <v>70</v>
       </c>
       <c r="M7">
@@ -6881,7 +7275,7 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="9">
         <v>2</v>
       </c>
       <c r="M10">
@@ -6928,7 +7322,7 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="9">
         <v>2</v>
       </c>
       <c r="M11">
@@ -6966,7 +7360,7 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="9" t="s">
         <v>55</v>
       </c>
       <c r="M12">
@@ -7013,7 +7407,7 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="9">
         <v>36</v>
       </c>
       <c r="M13">
@@ -7388,7 +7782,7 @@
       <c r="J22" t="s">
         <v>1772</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="9" t="s">
         <v>99</v>
       </c>
       <c r="M22">
@@ -7432,7 +7826,7 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="9">
         <v>4</v>
       </c>
       <c r="M23">
@@ -7479,7 +7873,7 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="9">
         <v>2</v>
       </c>
       <c r="M24">
@@ -7570,7 +7964,7 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="9">
         <v>10</v>
       </c>
       <c r="M26">
@@ -7705,7 +8099,7 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="9">
         <v>13</v>
       </c>
       <c r="M29">
@@ -7758,7 +8152,7 @@
       <c r="J30" t="s">
         <v>1774</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="9">
         <v>5</v>
       </c>
       <c r="M30">
@@ -7846,7 +8240,7 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="9">
         <v>2</v>
       </c>
       <c r="M32">
@@ -7981,7 +8375,7 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="9">
         <v>2</v>
       </c>
       <c r="M35">
@@ -8037,7 +8431,7 @@
       <c r="J36" t="s">
         <v>1775</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="9">
         <v>21</v>
       </c>
       <c r="M36">
@@ -8087,7 +8481,7 @@
       <c r="J37" t="s">
         <v>1776</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="9">
         <v>2</v>
       </c>
       <c r="M37">
@@ -8178,7 +8572,7 @@
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="9">
         <v>70</v>
       </c>
       <c r="M39">
@@ -8231,7 +8625,7 @@
       <c r="J40" t="s">
         <v>1777</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="9">
         <v>2</v>
       </c>
       <c r="M40">
@@ -8451,7 +8845,7 @@
       <c r="H45" s="4" t="s">
         <v>1861</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="9">
         <v>68</v>
       </c>
       <c r="M45">
@@ -8659,7 +9053,7 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="9">
         <v>2</v>
       </c>
       <c r="M50">
@@ -8829,7 +9223,7 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="9">
         <v>2</v>
       </c>
       <c r="M54">
@@ -8876,7 +9270,7 @@
       <c r="H55" s="4" t="s">
         <v>1864</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="9">
         <v>2</v>
       </c>
       <c r="M55">
@@ -8923,7 +9317,7 @@
       <c r="J56" t="s">
         <v>1782</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="9">
         <v>2</v>
       </c>
       <c r="M56">
@@ -9008,7 +9402,7 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="9">
         <v>26</v>
       </c>
       <c r="M58">
@@ -9055,7 +9449,7 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K59" s="9">
         <v>21</v>
       </c>
       <c r="M59">
@@ -9152,7 +9546,7 @@
       <c r="J61" t="s">
         <v>1783</v>
       </c>
-      <c r="L61" s="7" t="s">
+      <c r="L61" s="9" t="s">
         <v>268</v>
       </c>
       <c r="M61">
@@ -9199,7 +9593,7 @@
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K62" s="9">
         <v>2</v>
       </c>
       <c r="M62">
@@ -9281,7 +9675,7 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64" s="9">
         <v>2</v>
       </c>
       <c r="M64">
@@ -9492,7 +9886,7 @@
       <c r="H69" s="4" t="s">
         <v>1868</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K69" s="9">
         <v>2</v>
       </c>
       <c r="M69">
@@ -9633,7 +10027,7 @@
       <c r="J72" t="s">
         <v>1786</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K72" s="9">
         <v>2</v>
       </c>
       <c r="M72">
@@ -9677,7 +10071,7 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="K73" s="7">
+      <c r="K73" s="9">
         <v>13</v>
       </c>
       <c r="M73">
@@ -9724,7 +10118,7 @@
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K74" s="9">
         <v>2</v>
       </c>
       <c r="M74">
@@ -9765,7 +10159,7 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="K75" s="7">
+      <c r="K75" s="9">
         <v>21</v>
       </c>
       <c r="M75">
@@ -9812,7 +10206,7 @@
       <c r="H76" s="4" t="s">
         <v>1871</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K76" s="9">
         <v>5</v>
       </c>
       <c r="M76">
@@ -10038,7 +10432,7 @@
       <c r="H81" s="4" t="s">
         <v>1874</v>
       </c>
-      <c r="K81" s="7">
+      <c r="K81" s="9">
         <v>5</v>
       </c>
       <c r="M81">
@@ -10209,7 +10603,7 @@
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="K85" s="7">
+      <c r="K85" s="9">
         <v>2</v>
       </c>
       <c r="M85">
@@ -10350,7 +10744,7 @@
       <c r="J88" t="s">
         <v>1791</v>
       </c>
-      <c r="K88" s="7">
+      <c r="K88" s="9">
         <v>70</v>
       </c>
       <c r="M88">
@@ -10482,7 +10876,7 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="K91" s="7">
+      <c r="K91" s="9">
         <v>26</v>
       </c>
       <c r="M91">
@@ -10532,7 +10926,7 @@
       <c r="J92" t="s">
         <v>1793</v>
       </c>
-      <c r="K92" s="7">
+      <c r="K92" s="9">
         <v>4</v>
       </c>
       <c r="M92">
@@ -10576,7 +10970,7 @@
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="K93" s="7">
+      <c r="K93" s="9">
         <v>6</v>
       </c>
       <c r="M93">
@@ -10626,7 +11020,7 @@
       <c r="H94" s="4" t="s">
         <v>1880</v>
       </c>
-      <c r="L94" s="7" t="s">
+      <c r="L94" s="9" t="s">
         <v>418</v>
       </c>
       <c r="M94">
@@ -10676,7 +11070,7 @@
       <c r="H95" s="4" t="s">
         <v>1881</v>
       </c>
-      <c r="K95" s="7">
+      <c r="K95" s="9">
         <v>70</v>
       </c>
       <c r="M95">
@@ -10767,7 +11161,7 @@
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="K97" s="7">
+      <c r="K97" s="9">
         <v>36</v>
       </c>
       <c r="M97">
@@ -10811,7 +11205,7 @@
       <c r="G98">
         <v>0</v>
       </c>
-      <c r="K98" s="7">
+      <c r="K98" s="9">
         <v>2</v>
       </c>
       <c r="M98">
@@ -10890,7 +11284,7 @@
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="K100" s="7">
+      <c r="K100" s="9">
         <v>26</v>
       </c>
       <c r="M100">
@@ -11022,7 +11416,7 @@
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="K103" s="7">
+      <c r="K103" s="9">
         <v>21</v>
       </c>
       <c r="M103">
@@ -11116,7 +11510,7 @@
       <c r="I105" t="s">
         <v>1736</v>
       </c>
-      <c r="K105" s="7">
+      <c r="K105" s="9">
         <v>6</v>
       </c>
       <c r="M105">
@@ -11166,7 +11560,7 @@
       <c r="H106" s="4" t="s">
         <v>1883</v>
       </c>
-      <c r="K106" s="7">
+      <c r="K106" s="9">
         <v>2</v>
       </c>
       <c r="M106">
@@ -11210,7 +11604,7 @@
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="K107" s="7">
+      <c r="K107" s="9">
         <v>5</v>
       </c>
       <c r="M107">
@@ -11257,7 +11651,7 @@
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="L108" s="7" t="s">
+      <c r="L108" s="9" t="s">
         <v>1999</v>
       </c>
       <c r="M108">
@@ -11342,7 +11736,7 @@
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="K110" s="7">
+      <c r="K110" s="9">
         <v>2</v>
       </c>
       <c r="M110">
@@ -11480,7 +11874,7 @@
       <c r="H113" s="4" t="s">
         <v>1886</v>
       </c>
-      <c r="K113" s="7">
+      <c r="K113" s="9">
         <v>2</v>
       </c>
       <c r="M113">
@@ -11524,7 +11918,7 @@
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="K114" s="7">
+      <c r="K114" s="9">
         <v>2</v>
       </c>
       <c r="M114">
@@ -11609,7 +12003,7 @@
       <c r="H116" s="4" t="s">
         <v>1887</v>
       </c>
-      <c r="K116" s="7">
+      <c r="K116" s="9">
         <v>6</v>
       </c>
       <c r="M116">
@@ -11700,7 +12094,7 @@
       <c r="H118" s="4" t="s">
         <v>1888</v>
       </c>
-      <c r="K118" s="7">
+      <c r="K118" s="9">
         <v>2</v>
       </c>
       <c r="M118">
@@ -11785,7 +12179,7 @@
       <c r="H120" s="4" t="s">
         <v>1889</v>
       </c>
-      <c r="K120" s="7">
+      <c r="K120" s="9">
         <v>2</v>
       </c>
       <c r="M120">
@@ -11876,7 +12270,7 @@
       <c r="G122">
         <v>0</v>
       </c>
-      <c r="K122" s="7">
+      <c r="K122" s="9">
         <v>2</v>
       </c>
       <c r="M122">
@@ -12011,7 +12405,7 @@
       <c r="H125" s="4" t="s">
         <v>1890</v>
       </c>
-      <c r="K125" s="7">
+      <c r="K125" s="9">
         <v>21</v>
       </c>
       <c r="M125">
@@ -12058,7 +12452,7 @@
       <c r="H126" s="4" t="s">
         <v>1891</v>
       </c>
-      <c r="K126" s="7">
+      <c r="K126" s="9">
         <v>13</v>
       </c>
       <c r="M126">
@@ -12108,7 +12502,7 @@
       <c r="J127" t="s">
         <v>1795</v>
       </c>
-      <c r="K127" s="7">
+      <c r="K127" s="9">
         <v>39</v>
       </c>
       <c r="M127">
@@ -12152,7 +12546,7 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="K128" s="7">
+      <c r="K128" s="9">
         <v>2</v>
       </c>
       <c r="M128">
@@ -12243,7 +12637,7 @@
       <c r="H130" s="4" t="s">
         <v>1892</v>
       </c>
-      <c r="K130" s="7">
+      <c r="K130" s="9">
         <v>2</v>
       </c>
       <c r="M130">
@@ -12372,7 +12766,7 @@
       <c r="H133" s="4" t="s">
         <v>1894</v>
       </c>
-      <c r="K133" s="7">
+      <c r="K133" s="9">
         <v>70</v>
       </c>
       <c r="M133">
@@ -12598,7 +12992,7 @@
       <c r="G138">
         <v>0</v>
       </c>
-      <c r="K138" s="7">
+      <c r="K138" s="9">
         <v>15</v>
       </c>
       <c r="M138">
@@ -12645,7 +13039,7 @@
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="L139" s="7" t="s">
+      <c r="L139" s="9" t="s">
         <v>601</v>
       </c>
       <c r="M139">
@@ -12689,7 +13083,7 @@
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="K140" s="7">
+      <c r="K140" s="9">
         <v>2</v>
       </c>
       <c r="M140">
@@ -12739,7 +13133,7 @@
       <c r="H141" s="4" t="s">
         <v>1898</v>
       </c>
-      <c r="K141" s="7">
+      <c r="K141" s="9">
         <v>21</v>
       </c>
       <c r="M141">
@@ -12783,7 +13177,7 @@
       <c r="J142" t="s">
         <v>1796</v>
       </c>
-      <c r="L142" s="7" t="s">
+      <c r="L142" s="9" t="s">
         <v>616</v>
       </c>
       <c r="M142">
@@ -12827,7 +13221,7 @@
       <c r="H143" s="4" t="s">
         <v>1899</v>
       </c>
-      <c r="K143" s="7">
+      <c r="K143" s="9">
         <v>52</v>
       </c>
       <c r="M143">
@@ -12874,7 +13268,7 @@
       <c r="G144">
         <v>0</v>
       </c>
-      <c r="K144" s="7">
+      <c r="K144" s="9">
         <v>68</v>
       </c>
       <c r="M144">
@@ -12924,7 +13318,7 @@
       <c r="H145" s="4" t="s">
         <v>1900</v>
       </c>
-      <c r="K145" s="7">
+      <c r="K145" s="9">
         <v>5</v>
       </c>
       <c r="M145">
@@ -12974,7 +13368,7 @@
       <c r="H146" s="4" t="s">
         <v>1901</v>
       </c>
-      <c r="K146" s="7">
+      <c r="K146" s="9">
         <v>26</v>
       </c>
       <c r="M146">
@@ -13024,7 +13418,7 @@
       <c r="H147" s="4" t="s">
         <v>1902</v>
       </c>
-      <c r="K147" s="7">
+      <c r="K147" s="9">
         <v>2</v>
       </c>
       <c r="M147">
@@ -13200,7 +13594,7 @@
       <c r="H151" s="4" t="s">
         <v>1903</v>
       </c>
-      <c r="K151" s="7">
+      <c r="K151" s="9">
         <v>2</v>
       </c>
       <c r="M151">
@@ -13338,7 +13732,7 @@
       <c r="H154" s="4" t="s">
         <v>1905</v>
       </c>
-      <c r="K154" s="7">
+      <c r="K154" s="9">
         <v>4</v>
       </c>
       <c r="M154">
@@ -13379,7 +13773,7 @@
       <c r="G155">
         <v>0</v>
       </c>
-      <c r="K155" s="7">
+      <c r="K155" s="9">
         <v>52</v>
       </c>
       <c r="M155">
@@ -13426,7 +13820,7 @@
       <c r="J156" t="s">
         <v>1797</v>
       </c>
-      <c r="K156" s="7">
+      <c r="K156" s="9">
         <v>6</v>
       </c>
       <c r="M156">
@@ -13564,7 +13958,7 @@
       <c r="G159">
         <v>0</v>
       </c>
-      <c r="K159" s="7">
+      <c r="K159" s="9">
         <v>2</v>
       </c>
       <c r="M159">
@@ -13652,7 +14046,7 @@
       <c r="G161">
         <v>0</v>
       </c>
-      <c r="L161" s="7" t="s">
+      <c r="L161" s="9" t="s">
         <v>697</v>
       </c>
       <c r="M161">
@@ -13831,7 +14225,7 @@
       <c r="H165" s="4" t="s">
         <v>1911</v>
       </c>
-      <c r="K165" s="7">
+      <c r="K165" s="9">
         <v>21</v>
       </c>
       <c r="M165">
@@ -14036,7 +14430,7 @@
       <c r="J170" t="s">
         <v>1799</v>
       </c>
-      <c r="K170" s="7">
+      <c r="K170" s="9">
         <v>6</v>
       </c>
       <c r="M170">
@@ -14133,7 +14527,7 @@
       <c r="I172" t="s">
         <v>1741</v>
       </c>
-      <c r="K172" s="7">
+      <c r="K172" s="9">
         <v>2</v>
       </c>
       <c r="M172">
@@ -14180,7 +14574,7 @@
       <c r="H173" s="4" t="s">
         <v>1915</v>
       </c>
-      <c r="K173" s="7">
+      <c r="K173" s="9">
         <v>70</v>
       </c>
       <c r="M173">
@@ -14271,7 +14665,7 @@
       <c r="H175" s="4" t="s">
         <v>1917</v>
       </c>
-      <c r="K175" s="7">
+      <c r="K175" s="9">
         <v>6</v>
       </c>
       <c r="M175">
@@ -14406,7 +14800,7 @@
       <c r="H178" s="4" t="s">
         <v>1919</v>
       </c>
-      <c r="K178" s="7">
+      <c r="K178" s="9">
         <v>68</v>
       </c>
       <c r="M178">
@@ -14532,7 +14926,7 @@
       <c r="G181">
         <v>0</v>
       </c>
-      <c r="K181" s="7">
+      <c r="K181" s="9">
         <v>2</v>
       </c>
       <c r="M181">
@@ -14670,7 +15064,7 @@
       <c r="I184" t="s">
         <v>1742</v>
       </c>
-      <c r="K184" s="7">
+      <c r="K184" s="9">
         <v>21</v>
       </c>
       <c r="M184">
@@ -14717,7 +15111,7 @@
       <c r="G185">
         <v>0</v>
       </c>
-      <c r="K185" s="7">
+      <c r="K185" s="9">
         <v>2</v>
       </c>
       <c r="M185">
@@ -14764,7 +15158,7 @@
       <c r="H186" s="4" t="s">
         <v>1922</v>
       </c>
-      <c r="K186" s="7">
+      <c r="K186" s="9">
         <v>2</v>
       </c>
       <c r="M186">
@@ -14849,7 +15243,7 @@
       <c r="H188" s="4" t="s">
         <v>1923</v>
       </c>
-      <c r="L188" s="7" t="s">
+      <c r="L188" s="9" t="s">
         <v>810</v>
       </c>
       <c r="M188">
@@ -14896,7 +15290,7 @@
       <c r="G189">
         <v>0</v>
       </c>
-      <c r="K189" s="7">
+      <c r="K189" s="9">
         <v>5</v>
       </c>
       <c r="M189">
@@ -14940,7 +15334,7 @@
       <c r="G190">
         <v>0</v>
       </c>
-      <c r="K190" s="7">
+      <c r="K190" s="9">
         <v>2</v>
       </c>
       <c r="M190">
@@ -15066,7 +15460,7 @@
       <c r="H193" s="4" t="s">
         <v>1924</v>
       </c>
-      <c r="K193" s="7">
+      <c r="K193" s="9">
         <v>2</v>
       </c>
       <c r="M193">
@@ -15110,7 +15504,7 @@
       <c r="G194">
         <v>0</v>
       </c>
-      <c r="K194" s="7">
+      <c r="K194" s="9">
         <v>2</v>
       </c>
       <c r="M194">
@@ -15201,7 +15595,7 @@
       <c r="H196" s="4" t="s">
         <v>1925</v>
       </c>
-      <c r="K196" s="7">
+      <c r="K196" s="9">
         <v>2</v>
       </c>
       <c r="M196">
@@ -15248,7 +15642,7 @@
       <c r="H197" s="4" t="s">
         <v>1926</v>
       </c>
-      <c r="K197" s="7">
+      <c r="K197" s="9">
         <v>2</v>
       </c>
       <c r="M197">
@@ -15295,7 +15689,7 @@
       <c r="G198">
         <v>0</v>
       </c>
-      <c r="K198" s="7">
+      <c r="K198" s="9">
         <v>2</v>
       </c>
       <c r="M198">
@@ -15421,7 +15815,7 @@
       <c r="G201">
         <v>0</v>
       </c>
-      <c r="K201" s="7">
+      <c r="K201" s="9">
         <v>2</v>
       </c>
       <c r="M201">
@@ -15562,7 +15956,7 @@
       <c r="H204" s="4" t="s">
         <v>1928</v>
       </c>
-      <c r="K204" s="7">
+      <c r="K204" s="9">
         <v>5</v>
       </c>
       <c r="M204">
@@ -15606,7 +16000,7 @@
       <c r="G205">
         <v>0</v>
       </c>
-      <c r="L205" s="7" t="s">
+      <c r="L205" s="9" t="s">
         <v>884</v>
       </c>
       <c r="M205">
@@ -15776,7 +16170,7 @@
       <c r="G209">
         <v>0</v>
       </c>
-      <c r="K209" s="7">
+      <c r="K209" s="9">
         <v>4</v>
       </c>
       <c r="M209">
@@ -15873,7 +16267,7 @@
       <c r="J211" t="s">
         <v>1807</v>
       </c>
-      <c r="K211" s="7">
+      <c r="K211" s="9">
         <v>70</v>
       </c>
       <c r="M211">
@@ -15952,7 +16346,7 @@
       <c r="G213">
         <v>0</v>
       </c>
-      <c r="K213" s="7">
+      <c r="K213" s="9">
         <v>5</v>
       </c>
       <c r="M213">
@@ -15996,7 +16390,7 @@
       <c r="G214">
         <v>0</v>
       </c>
-      <c r="K214" s="7">
+      <c r="K214" s="9">
         <v>2</v>
       </c>
       <c r="M214">
@@ -16134,7 +16528,7 @@
       <c r="G217">
         <v>0</v>
       </c>
-      <c r="K217" s="7">
+      <c r="K217" s="9">
         <v>21</v>
       </c>
       <c r="M217">
@@ -16225,7 +16619,7 @@
       <c r="J219" t="s">
         <v>1810</v>
       </c>
-      <c r="K219" s="7">
+      <c r="K219" s="9">
         <v>21</v>
       </c>
       <c r="M219">
@@ -16269,7 +16663,7 @@
       <c r="G220">
         <v>0</v>
       </c>
-      <c r="K220" s="7">
+      <c r="K220" s="9">
         <v>2</v>
       </c>
       <c r="M220">
@@ -16404,7 +16798,7 @@
       <c r="H223" s="4" t="s">
         <v>1932</v>
       </c>
-      <c r="K223" s="7">
+      <c r="K223" s="9">
         <v>2</v>
       </c>
       <c r="M223">
@@ -16618,7 +17012,7 @@
       <c r="H228" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="K228" s="7">
+      <c r="K228" s="9">
         <v>2</v>
       </c>
       <c r="M228">
@@ -16753,7 +17147,7 @@
       <c r="H231" s="4" t="s">
         <v>1937</v>
       </c>
-      <c r="K231" s="7">
+      <c r="K231" s="9">
         <v>28</v>
       </c>
       <c r="M231">
@@ -16797,7 +17191,7 @@
       <c r="G232">
         <v>0</v>
       </c>
-      <c r="K232" s="7">
+      <c r="K232" s="9">
         <v>6</v>
       </c>
       <c r="M232">
@@ -16888,7 +17282,7 @@
       <c r="G234">
         <v>0</v>
       </c>
-      <c r="K234" s="7">
+      <c r="K234" s="9">
         <v>13</v>
       </c>
       <c r="M234">
@@ -16932,7 +17326,7 @@
       <c r="G235">
         <v>0</v>
       </c>
-      <c r="K235" s="7">
+      <c r="K235" s="9">
         <v>2</v>
       </c>
       <c r="M235">
@@ -16979,7 +17373,7 @@
       <c r="G236">
         <v>0</v>
       </c>
-      <c r="K236" s="7">
+      <c r="K236" s="9">
         <v>52</v>
       </c>
       <c r="M236">
@@ -17111,7 +17505,7 @@
       <c r="I239" t="s">
         <v>1749</v>
       </c>
-      <c r="K239" s="7">
+      <c r="K239" s="9">
         <v>4</v>
       </c>
       <c r="M239">
@@ -17161,7 +17555,7 @@
       <c r="H240" s="4" t="s">
         <v>1938</v>
       </c>
-      <c r="K240" s="7">
+      <c r="K240" s="9">
         <v>6</v>
       </c>
       <c r="M240">
@@ -17287,7 +17681,7 @@
       <c r="G243">
         <v>0</v>
       </c>
-      <c r="K243" s="7">
+      <c r="K243" s="9">
         <v>7</v>
       </c>
       <c r="M243">
@@ -17375,7 +17769,7 @@
       <c r="H245" s="4" t="s">
         <v>1940</v>
       </c>
-      <c r="K245" s="7">
+      <c r="K245" s="9">
         <v>2</v>
       </c>
       <c r="M245">
@@ -17501,7 +17895,7 @@
       <c r="G248">
         <v>0</v>
       </c>
-      <c r="K248" s="7">
+      <c r="K248" s="9">
         <v>2</v>
       </c>
       <c r="M248">
@@ -17762,7 +18156,7 @@
       <c r="J254" t="s">
         <v>1814</v>
       </c>
-      <c r="K254" s="7">
+      <c r="K254" s="9">
         <v>2</v>
       </c>
       <c r="M254">
@@ -17809,7 +18203,7 @@
       <c r="H255" s="4" t="s">
         <v>1942</v>
       </c>
-      <c r="K255" s="7">
+      <c r="K255" s="9">
         <v>24</v>
       </c>
       <c r="M255">
@@ -17850,7 +18244,7 @@
       <c r="G256">
         <v>0</v>
       </c>
-      <c r="K256" s="7">
+      <c r="K256" s="9">
         <v>2</v>
       </c>
       <c r="M256">
@@ -18155,7 +18549,7 @@
       <c r="J263" t="s">
         <v>1816</v>
       </c>
-      <c r="K263" s="7">
+      <c r="K263" s="9">
         <v>36</v>
       </c>
       <c r="M263">
@@ -18287,7 +18681,7 @@
       <c r="H266" s="4" t="s">
         <v>1945</v>
       </c>
-      <c r="K266" s="7">
+      <c r="K266" s="9">
         <v>6</v>
       </c>
       <c r="M266">
@@ -18419,7 +18813,7 @@
       <c r="H269" s="4" t="s">
         <v>1947</v>
       </c>
-      <c r="K269" s="7">
+      <c r="K269" s="9">
         <v>39</v>
       </c>
       <c r="M269">
@@ -18501,7 +18895,7 @@
       <c r="G271">
         <v>0</v>
       </c>
-      <c r="K271" s="7">
+      <c r="K271" s="9">
         <v>6</v>
       </c>
       <c r="M271">
@@ -18554,7 +18948,7 @@
       <c r="I272" t="s">
         <v>1754</v>
       </c>
-      <c r="K272" s="7">
+      <c r="K272" s="9">
         <v>2</v>
       </c>
       <c r="M272">
@@ -18607,7 +19001,7 @@
       <c r="I273" t="s">
         <v>1755</v>
       </c>
-      <c r="K273" s="7">
+      <c r="K273" s="9">
         <v>2</v>
       </c>
       <c r="M273">
@@ -18739,7 +19133,7 @@
       <c r="G276">
         <v>0</v>
       </c>
-      <c r="K276" s="7">
+      <c r="K276" s="9">
         <v>15</v>
       </c>
       <c r="M276">
@@ -18786,7 +19180,7 @@
       <c r="G277">
         <v>0</v>
       </c>
-      <c r="K277" s="7">
+      <c r="K277" s="9">
         <v>2</v>
       </c>
       <c r="M277">
@@ -18836,7 +19230,7 @@
       <c r="J278" t="s">
         <v>1818</v>
       </c>
-      <c r="L278" s="7" t="s">
+      <c r="L278" s="9" t="s">
         <v>1190</v>
       </c>
       <c r="M278">
@@ -18880,7 +19274,7 @@
       <c r="G279">
         <v>0</v>
       </c>
-      <c r="K279" s="7">
+      <c r="K279" s="9">
         <v>7</v>
       </c>
       <c r="M279">
@@ -19088,7 +19482,7 @@
       <c r="J284" t="s">
         <v>1819</v>
       </c>
-      <c r="K284" s="7">
+      <c r="K284" s="9">
         <v>2</v>
       </c>
       <c r="M284">
@@ -19132,7 +19526,7 @@
       <c r="G285">
         <v>0</v>
       </c>
-      <c r="K285" s="7">
+      <c r="K285" s="9">
         <v>36</v>
       </c>
       <c r="M285">
@@ -19217,7 +19611,7 @@
       <c r="J287" t="s">
         <v>1820</v>
       </c>
-      <c r="K287" s="7">
+      <c r="K287" s="9">
         <v>5</v>
       </c>
       <c r="M287">
@@ -19314,7 +19708,7 @@
       <c r="G289">
         <v>0</v>
       </c>
-      <c r="K289" s="7">
+      <c r="K289" s="9">
         <v>2</v>
       </c>
       <c r="M289">
@@ -19443,7 +19837,7 @@
       <c r="G292">
         <v>0</v>
       </c>
-      <c r="K292" s="7">
+      <c r="K292" s="9">
         <v>13</v>
       </c>
       <c r="M292">
@@ -19622,7 +20016,7 @@
       <c r="H296" s="4" t="s">
         <v>1958</v>
       </c>
-      <c r="K296" s="7">
+      <c r="K296" s="9">
         <v>6</v>
       </c>
       <c r="M296">
@@ -19713,7 +20107,7 @@
       <c r="G298">
         <v>0</v>
       </c>
-      <c r="K298" s="7">
+      <c r="K298" s="9">
         <v>4</v>
       </c>
       <c r="M298">
@@ -19757,7 +20151,7 @@
       <c r="G299">
         <v>0</v>
       </c>
-      <c r="K299" s="7">
+      <c r="K299" s="9">
         <v>4</v>
       </c>
       <c r="M299">
@@ -19851,7 +20245,7 @@
       <c r="J301" t="s">
         <v>1823</v>
       </c>
-      <c r="K301" s="7">
+      <c r="K301" s="9">
         <v>2</v>
       </c>
       <c r="M301">
@@ -19898,7 +20292,7 @@
       <c r="G302">
         <v>0</v>
       </c>
-      <c r="K302" s="7">
+      <c r="K302" s="9">
         <v>70</v>
       </c>
       <c r="M302">
@@ -19942,7 +20336,7 @@
       <c r="G303">
         <v>0</v>
       </c>
-      <c r="L303" s="7" t="s">
+      <c r="L303" s="9" t="s">
         <v>2000</v>
       </c>
       <c r="M303">
@@ -19983,7 +20377,7 @@
       <c r="G304">
         <v>0</v>
       </c>
-      <c r="K304" s="7">
+      <c r="K304" s="9">
         <v>52</v>
       </c>
       <c r="M304">
@@ -20062,7 +20456,7 @@
       <c r="J306" t="s">
         <v>1824</v>
       </c>
-      <c r="K306" s="7">
+      <c r="K306" s="9">
         <v>2</v>
       </c>
       <c r="M306">
@@ -20112,7 +20506,7 @@
       <c r="H307" s="4" t="s">
         <v>1961</v>
       </c>
-      <c r="K307" s="7">
+      <c r="K307" s="9">
         <v>21</v>
       </c>
       <c r="M307">
@@ -20291,7 +20685,7 @@
       <c r="J311" t="s">
         <v>1825</v>
       </c>
-      <c r="K311" s="7">
+      <c r="K311" s="9">
         <v>39</v>
       </c>
       <c r="M311">
@@ -20332,7 +20726,7 @@
       <c r="G312">
         <v>0</v>
       </c>
-      <c r="K312" s="7">
+      <c r="K312" s="9">
         <v>2</v>
       </c>
       <c r="M312">
@@ -20379,7 +20773,7 @@
       <c r="J313" t="s">
         <v>1826</v>
       </c>
-      <c r="L313" s="7" t="s">
+      <c r="L313" s="9" t="s">
         <v>1337</v>
       </c>
       <c r="M313">
@@ -20426,7 +20820,7 @@
       <c r="H314" s="4" t="s">
         <v>1965</v>
       </c>
-      <c r="K314" s="7">
+      <c r="K314" s="9">
         <v>2</v>
       </c>
       <c r="M314">
@@ -20552,7 +20946,7 @@
       <c r="H317" s="4" t="s">
         <v>1966</v>
       </c>
-      <c r="K317" s="7">
+      <c r="K317" s="9">
         <v>36</v>
       </c>
       <c r="M317">
@@ -20637,7 +21031,7 @@
       <c r="G319">
         <v>0</v>
       </c>
-      <c r="K319" s="7">
+      <c r="K319" s="9">
         <v>26</v>
       </c>
       <c r="M319">
@@ -20769,7 +21163,7 @@
       <c r="J322" t="s">
         <v>1827</v>
       </c>
-      <c r="K322" s="7">
+      <c r="K322" s="9">
         <v>21</v>
       </c>
       <c r="M322">
@@ -20854,7 +21248,7 @@
       <c r="G324">
         <v>0</v>
       </c>
-      <c r="K324" s="7">
+      <c r="K324" s="9">
         <v>2</v>
       </c>
       <c r="M324">
@@ -20901,7 +21295,7 @@
       <c r="H325" s="4" t="s">
         <v>1967</v>
       </c>
-      <c r="K325" s="7">
+      <c r="K325" s="9">
         <v>2</v>
       </c>
       <c r="M325">
@@ -20948,7 +21342,7 @@
       <c r="J326" t="s">
         <v>1828</v>
       </c>
-      <c r="K326" s="7">
+      <c r="K326" s="9">
         <v>36</v>
       </c>
       <c r="M326">
@@ -21109,7 +21503,7 @@
       <c r="G330">
         <v>0</v>
       </c>
-      <c r="K330" s="7">
+      <c r="K330" s="9">
         <v>2</v>
       </c>
       <c r="M330">
@@ -21288,7 +21682,7 @@
       <c r="H334" s="4" t="s">
         <v>1970</v>
       </c>
-      <c r="K334" s="7">
+      <c r="K334" s="9">
         <v>2</v>
       </c>
       <c r="M334">
@@ -21379,7 +21773,7 @@
       <c r="H336" s="4" t="s">
         <v>1971</v>
       </c>
-      <c r="K336" s="7">
+      <c r="K336" s="9">
         <v>6</v>
       </c>
       <c r="M336">
@@ -21429,7 +21823,7 @@
       <c r="H337" s="4" t="s">
         <v>1972</v>
       </c>
-      <c r="K337" s="7">
+      <c r="K337" s="9">
         <v>4</v>
       </c>
       <c r="M337">
@@ -21520,7 +21914,7 @@
       <c r="I339" t="s">
         <v>1763</v>
       </c>
-      <c r="K339" s="7">
+      <c r="K339" s="9">
         <v>2</v>
       </c>
       <c r="M339">
@@ -21602,7 +21996,7 @@
       <c r="G341">
         <v>0</v>
       </c>
-      <c r="K341" s="7">
+      <c r="K341" s="9">
         <v>6</v>
       </c>
       <c r="M341">
@@ -21649,7 +22043,7 @@
       <c r="H342" s="4" t="s">
         <v>1974</v>
       </c>
-      <c r="K342" s="7">
+      <c r="K342" s="9">
         <v>6</v>
       </c>
       <c r="M342">
@@ -21772,7 +22166,10 @@
       <c r="H345" s="4" t="s">
         <v>1975</v>
       </c>
-      <c r="L345" s="7" t="s">
+      <c r="K345" s="9">
+        <v>22</v>
+      </c>
+      <c r="L345" s="9" t="s">
         <v>1467</v>
       </c>
       <c r="M345">
@@ -21822,7 +22219,7 @@
       <c r="H346" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="K346" s="7">
+      <c r="K346" s="9">
         <v>21</v>
       </c>
       <c r="M346">
@@ -21866,7 +22263,7 @@
       <c r="H347" s="4" t="s">
         <v>1977</v>
       </c>
-      <c r="K347" s="7">
+      <c r="K347" s="9">
         <v>2</v>
       </c>
       <c r="M347">
@@ -21916,7 +22313,7 @@
       <c r="H348" s="4" t="s">
         <v>1978</v>
       </c>
-      <c r="L348" s="7" t="s">
+      <c r="L348" s="9" t="s">
         <v>616</v>
       </c>
       <c r="M348">
@@ -21963,7 +22360,7 @@
       <c r="H349" s="4" t="s">
         <v>1979</v>
       </c>
-      <c r="K349" s="7">
+      <c r="K349" s="9">
         <v>2</v>
       </c>
       <c r="M349">
@@ -22013,7 +22410,7 @@
       <c r="H350" s="4" t="s">
         <v>1980</v>
       </c>
-      <c r="K350" s="7">
+      <c r="K350" s="9">
         <v>52</v>
       </c>
       <c r="M350">
@@ -22154,7 +22551,7 @@
       <c r="J353" t="s">
         <v>1832</v>
       </c>
-      <c r="K353" s="7">
+      <c r="K353" s="9">
         <v>37</v>
       </c>
       <c r="M353">
@@ -22286,7 +22683,7 @@
       <c r="J356" t="s">
         <v>1833</v>
       </c>
-      <c r="K356" s="7">
+      <c r="K356" s="9">
         <v>2</v>
       </c>
       <c r="M356">
@@ -22333,7 +22730,7 @@
       <c r="G357">
         <v>0</v>
       </c>
-      <c r="K357" s="7">
+      <c r="K357" s="9">
         <v>2</v>
       </c>
       <c r="M357">
@@ -22544,7 +22941,7 @@
       <c r="H362" s="4" t="s">
         <v>1984</v>
       </c>
-      <c r="K362" s="7">
+      <c r="K362" s="9">
         <v>2</v>
       </c>
       <c r="M362">
@@ -22588,7 +22985,7 @@
       <c r="G363">
         <v>0</v>
       </c>
-      <c r="L363" s="7" t="s">
+      <c r="L363" s="9" t="s">
         <v>1547</v>
       </c>
       <c r="M363">
@@ -22635,7 +23032,7 @@
       <c r="J364" t="s">
         <v>1834</v>
       </c>
-      <c r="K364" s="7">
+      <c r="K364" s="9">
         <v>2</v>
       </c>
       <c r="M364">
@@ -22726,7 +23123,7 @@
       <c r="G366">
         <v>0</v>
       </c>
-      <c r="K366" s="7">
+      <c r="K366" s="9">
         <v>2</v>
       </c>
       <c r="M366">
@@ -22811,7 +23208,7 @@
       <c r="G368">
         <v>0</v>
       </c>
-      <c r="K368" s="7">
+      <c r="K368" s="9">
         <v>13</v>
       </c>
       <c r="M368">
@@ -22861,7 +23258,7 @@
       <c r="H369" s="4" t="s">
         <v>1987</v>
       </c>
-      <c r="K369" s="7">
+      <c r="K369" s="9">
         <v>24</v>
       </c>
       <c r="M369">
@@ -22905,7 +23302,7 @@
       <c r="G370">
         <v>0</v>
       </c>
-      <c r="K370" s="7">
+      <c r="K370" s="9">
         <v>52</v>
       </c>
       <c r="M370">
@@ -22952,7 +23349,7 @@
       <c r="J371" t="s">
         <v>1835</v>
       </c>
-      <c r="K371" s="7">
+      <c r="K371" s="9">
         <v>70</v>
       </c>
       <c r="M371">
@@ -23040,7 +23437,7 @@
       <c r="G373">
         <v>0</v>
       </c>
-      <c r="K373" s="7">
+      <c r="K373" s="9">
         <v>2</v>
       </c>
       <c r="M373">
@@ -23096,7 +23493,7 @@
       <c r="J374" t="s">
         <v>1837</v>
       </c>
-      <c r="K374" s="7">
+      <c r="K374" s="9">
         <v>5</v>
       </c>
       <c r="M374">
@@ -23152,7 +23549,7 @@
       <c r="J375" t="s">
         <v>1838</v>
       </c>
-      <c r="K375" s="7">
+      <c r="K375" s="9">
         <v>2</v>
       </c>
       <c r="M375">
@@ -23249,7 +23646,10 @@
       <c r="H377" s="4" t="s">
         <v>1984</v>
       </c>
-      <c r="L377" s="7" t="s">
+      <c r="K377" s="9">
+        <v>20</v>
+      </c>
+      <c r="L377" s="9" t="s">
         <v>1604</v>
       </c>
       <c r="M377">
@@ -23340,7 +23740,7 @@
       <c r="H379" s="4" t="s">
         <v>1990</v>
       </c>
-      <c r="K379" s="7">
+      <c r="K379" s="9">
         <v>2</v>
       </c>
       <c r="M379">
@@ -23387,7 +23787,7 @@
       <c r="G380">
         <v>0</v>
       </c>
-      <c r="L380" s="7" t="s">
+      <c r="L380" s="9" t="s">
         <v>268</v>
       </c>
       <c r="M380">
@@ -23434,7 +23834,7 @@
       <c r="G381">
         <v>0</v>
       </c>
-      <c r="K381" s="7">
+      <c r="K381" s="9">
         <v>2</v>
       </c>
       <c r="M381">
@@ -23525,7 +23925,7 @@
       <c r="H383" s="4" t="s">
         <v>1991</v>
       </c>
-      <c r="K383" s="7">
+      <c r="K383" s="9">
         <v>6</v>
       </c>
       <c r="M383">
@@ -23745,7 +24145,7 @@
       <c r="H388" s="4" t="s">
         <v>1993</v>
       </c>
-      <c r="K388" s="7">
+      <c r="K388" s="9">
         <v>6</v>
       </c>
       <c r="M388">
@@ -23795,7 +24195,7 @@
       <c r="H389" s="4" t="s">
         <v>1994</v>
       </c>
-      <c r="K389" s="7">
+      <c r="K389" s="9">
         <v>2</v>
       </c>
       <c r="M389">
@@ -23880,7 +24280,7 @@
       <c r="G391">
         <v>0</v>
       </c>
-      <c r="K391" s="7">
+      <c r="K391" s="9">
         <v>7</v>
       </c>
       <c r="M391">
@@ -24053,7 +24453,7 @@
       <c r="J395" t="s">
         <v>1841</v>
       </c>
-      <c r="K395" s="7">
+      <c r="K395" s="9">
         <v>2</v>
       </c>
       <c r="M395">
@@ -24144,7 +24544,7 @@
       <c r="H397" s="4" t="s">
         <v>1997</v>
       </c>
-      <c r="K397" s="7">
+      <c r="K397" s="9">
         <v>52</v>
       </c>
       <c r="M397">
@@ -24267,7 +24667,7 @@
       <c r="G400">
         <v>0</v>
       </c>
-      <c r="K400" s="7">
+      <c r="K400" s="9">
         <v>24</v>
       </c>
       <c r="M400">
@@ -24311,7 +24711,7 @@
       <c r="G401">
         <v>0</v>
       </c>
-      <c r="K401" s="7">
+      <c r="K401" s="9">
         <v>2</v>
       </c>
       <c r="M401">
@@ -24337,8 +24737,989 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S401" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1913E702-329F-704B-8E72-DBF6CF3E148D}">
+  <dimension ref="A1:B120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>52</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>21</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>21</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>21</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>53</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>46</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>54</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>49</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>36</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>36</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>23</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>30</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>30</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>30</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>22</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>33</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>31</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>56</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>56</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>55</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>29</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>29</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>39</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>32</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>32</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>32</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>37</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>40</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>35</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>28</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>28</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>28</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>28</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>28</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>41</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>41</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>60</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>42</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>43</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>43</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>43</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>44</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>44</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>59</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>59</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>61</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>65</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>50</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/formatted/candidates/100-400/candidates.xlsx
+++ b/formatted/candidates/100-400/candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/nj.migration/formatted/candidates/100-400/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E58DAA-E313-D94B-BA94-49D4B537B065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1659485-6629-3440-9052-45C69DDA116D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="55960" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="57180" windowHeight="28720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4439" uniqueCount="2119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4356" uniqueCount="2119">
   <si>
     <t>gender</t>
   </si>
@@ -6485,21 +6485,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6815,8 +6813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E287" sqref="E287:E396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6828,13 +6826,13 @@
     <col min="5" max="5" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="51.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="76.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
+    <col min="12" max="12" width="76.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="22.5" style="3" customWidth="1"/>
     <col min="15" max="15" width="32" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
@@ -6864,7 +6862,7 @@
       <c r="G1" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>1717</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -6873,16 +6871,16 @@
       <c r="J1" s="1" t="s">
         <v>1719</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>1843</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>1843</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>1721</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -6926,13 +6924,13 @@
       <c r="J2" t="s">
         <v>1768</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
       <c r="M2">
         <v>15924424</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O2" t="s">
@@ -6973,7 +6971,7 @@
       <c r="M3">
         <v>15924428</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O3" t="s">
@@ -7017,7 +7015,7 @@
       <c r="M4">
         <v>15924442</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O4" t="s">
@@ -7058,7 +7056,7 @@
       <c r="M5">
         <v>15924447</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O5" t="s">
@@ -7099,16 +7097,16 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>1850</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6">
         <v>15</v>
       </c>
       <c r="M6">
         <v>15924450</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O6" t="s">
@@ -7149,13 +7147,13 @@
       <c r="J7" t="s">
         <v>1769</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7">
         <v>70</v>
       </c>
       <c r="M7">
         <v>15924457</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P7" t="s">
@@ -7193,7 +7191,7 @@
       <c r="M8">
         <v>15924458</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O8" t="s">
@@ -7234,7 +7232,7 @@
       <c r="M9">
         <v>15924477</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O9" t="s">
@@ -7266,22 +7264,19 @@
       <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
       <c r="F10" t="s">
         <v>45</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10">
         <v>2</v>
       </c>
       <c r="M10">
         <v>15924491</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O10" t="s">
@@ -7322,13 +7317,13 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11">
         <v>2</v>
       </c>
       <c r="M11">
         <v>15924492</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P11" t="s">
@@ -7360,13 +7355,13 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" t="s">
         <v>55</v>
       </c>
       <c r="M12">
         <v>15924500</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O12" t="s">
@@ -7407,13 +7402,13 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13">
         <v>36</v>
       </c>
       <c r="M13">
         <v>15924519</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P13" t="s">
@@ -7448,13 +7443,13 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>1851</v>
       </c>
       <c r="M14">
         <v>15924524</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O14" t="s">
@@ -7492,7 +7487,7 @@
       <c r="M15">
         <v>15924533</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P15" t="s">
@@ -7530,7 +7525,7 @@
       <c r="M16">
         <v>15924536</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O16" t="s">
@@ -7571,7 +7566,7 @@
       <c r="M17">
         <v>15924538</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O17" t="s">
@@ -7600,9 +7595,6 @@
       <c r="D18" t="s">
         <v>80</v>
       </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
       <c r="F18" t="s">
         <v>81</v>
       </c>
@@ -7615,7 +7607,7 @@
       <c r="M18">
         <v>15924548</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O18" t="s">
@@ -7653,7 +7645,7 @@
       <c r="M19">
         <v>15924549</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O19" t="s">
@@ -7691,13 +7683,13 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>1852</v>
       </c>
       <c r="M20">
         <v>15924565</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O20" t="s">
@@ -7744,7 +7736,7 @@
       <c r="M21">
         <v>15924570</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P21" t="s">
@@ -7782,13 +7774,13 @@
       <c r="J22" t="s">
         <v>1772</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" t="s">
         <v>99</v>
       </c>
       <c r="M22">
         <v>15924577</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P22" t="s">
@@ -7826,13 +7818,13 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23">
         <v>4</v>
       </c>
       <c r="M23">
         <v>15924578</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O23" t="s">
@@ -7873,13 +7865,13 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24">
         <v>2</v>
       </c>
       <c r="M24">
         <v>15924579</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O24" t="s">
@@ -7920,13 +7912,13 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>1853</v>
       </c>
       <c r="M25">
         <v>15924590</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="N25" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O25" t="s">
@@ -7964,13 +7956,13 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26">
         <v>10</v>
       </c>
       <c r="M26">
         <v>15924592</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P26" t="s">
@@ -8014,7 +8006,7 @@
       <c r="M27">
         <v>15924593</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="N27" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O27" t="s">
@@ -8055,13 +8047,13 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>1854</v>
       </c>
       <c r="M28">
         <v>15924625</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="N28" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P28" t="s">
@@ -8099,13 +8091,13 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29">
         <v>13</v>
       </c>
       <c r="M29">
         <v>15924629</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O29" t="s">
@@ -8146,19 +8138,19 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>1855</v>
       </c>
       <c r="J30" t="s">
         <v>1774</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30">
         <v>5</v>
       </c>
       <c r="M30">
         <v>15924639</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="N30" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O30" t="s">
@@ -8202,7 +8194,7 @@
       <c r="M31">
         <v>15924653</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P31" t="s">
@@ -8231,22 +8223,19 @@
       <c r="D32" t="s">
         <v>145</v>
       </c>
-      <c r="E32" t="s">
-        <v>146</v>
-      </c>
       <c r="F32" t="s">
         <v>146</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32">
         <v>2</v>
       </c>
       <c r="M32">
         <v>15924657</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="N32" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O32" t="s">
@@ -8290,7 +8279,7 @@
       <c r="M33">
         <v>15924661</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P33" t="s">
@@ -8325,7 +8314,7 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>1856</v>
       </c>
       <c r="I34" t="s">
@@ -8334,7 +8323,7 @@
       <c r="M34">
         <v>15924671</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="N34" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O34" t="s">
@@ -8366,22 +8355,19 @@
       <c r="D35" t="s">
         <v>158</v>
       </c>
-      <c r="E35" t="s">
-        <v>159</v>
-      </c>
       <c r="F35" t="s">
         <v>159</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35">
         <v>2</v>
       </c>
       <c r="M35">
         <v>15924673</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="N35" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O35" t="s">
@@ -8422,7 +8408,7 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>1857</v>
       </c>
       <c r="I36" t="s">
@@ -8431,13 +8417,13 @@
       <c r="J36" t="s">
         <v>1775</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36">
         <v>21</v>
       </c>
       <c r="M36">
         <v>15924679</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="N36" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O36" t="s">
@@ -8466,28 +8452,25 @@
       <c r="D37" t="s">
         <v>167</v>
       </c>
-      <c r="E37" t="s">
-        <v>168</v>
-      </c>
       <c r="F37" t="s">
         <v>168</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="3" t="s">
         <v>1858</v>
       </c>
       <c r="J37" t="s">
         <v>1776</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37">
         <v>2</v>
       </c>
       <c r="M37">
         <v>15924680</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="N37" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O37" t="s">
@@ -8528,13 +8511,13 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>1859</v>
       </c>
       <c r="M38">
         <v>15924689</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="N38" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O38" t="s">
@@ -8566,19 +8549,19 @@
       <c r="D39" t="s">
         <v>176</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>177</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39">
         <v>70</v>
       </c>
       <c r="M39">
         <v>15924693</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="N39" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O39" t="s">
@@ -8610,28 +8593,25 @@
       <c r="D40" t="s">
         <v>180</v>
       </c>
-      <c r="E40" t="s">
-        <v>181</v>
-      </c>
       <c r="F40" t="s">
         <v>181</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="3" t="s">
         <v>1860</v>
       </c>
       <c r="J40" t="s">
         <v>1777</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40">
         <v>2</v>
       </c>
       <c r="M40">
         <v>15924694</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="N40" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P40" t="s">
@@ -8672,7 +8652,7 @@
       <c r="M41">
         <v>15924727</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="N41" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P41" t="s">
@@ -8713,7 +8693,7 @@
       <c r="M42">
         <v>15924729</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="N42" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P42" t="s">
@@ -8757,7 +8737,7 @@
       <c r="M43">
         <v>15924731</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="N43" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O43" t="s">
@@ -8801,7 +8781,7 @@
       <c r="M44">
         <v>15924732</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="N44" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O44" t="s">
@@ -8833,25 +8813,22 @@
       <c r="D45" t="s">
         <v>197</v>
       </c>
-      <c r="E45" t="s">
-        <v>198</v>
-      </c>
       <c r="F45" t="s">
         <v>198</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="3" t="s">
         <v>1861</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K45">
         <v>68</v>
       </c>
       <c r="M45">
         <v>15924734</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="N45" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O45" t="s">
@@ -8889,13 +8866,13 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="3" t="s">
         <v>1862</v>
       </c>
       <c r="M46">
         <v>15924740</v>
       </c>
-      <c r="N46" s="4" t="s">
+      <c r="N46" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P46" t="s">
@@ -8921,22 +8898,19 @@
       <c r="D47" t="s">
         <v>205</v>
       </c>
-      <c r="E47" t="s">
-        <v>206</v>
-      </c>
       <c r="F47" t="s">
         <v>206</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="3" t="s">
         <v>1863</v>
       </c>
       <c r="M47">
         <v>15924741</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="N47" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O47" t="s">
@@ -8974,7 +8948,7 @@
       <c r="M48">
         <v>15924742</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="N48" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O48" t="s">
@@ -9015,7 +8989,7 @@
       <c r="M49">
         <v>15924754</v>
       </c>
-      <c r="N49" s="4" t="s">
+      <c r="N49" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P49" t="s">
@@ -9053,13 +9027,13 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K50">
         <v>2</v>
       </c>
       <c r="M50">
         <v>15924758</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="N50" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O50" t="s">
@@ -9097,7 +9071,7 @@
       <c r="M51">
         <v>15924769</v>
       </c>
-      <c r="N51" s="4" t="s">
+      <c r="N51" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O51" t="s">
@@ -9126,9 +9100,6 @@
       <c r="D52" t="s">
         <v>225</v>
       </c>
-      <c r="E52" t="s">
-        <v>226</v>
-      </c>
       <c r="F52" t="s">
         <v>226</v>
       </c>
@@ -9138,7 +9109,7 @@
       <c r="M52">
         <v>15924774</v>
       </c>
-      <c r="N52" s="4" t="s">
+      <c r="N52" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O52" t="s">
@@ -9182,7 +9153,7 @@
       <c r="M53">
         <v>15924792</v>
       </c>
-      <c r="N53" s="4" t="s">
+      <c r="N53" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O53" t="s">
@@ -9223,13 +9194,13 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54">
         <v>2</v>
       </c>
       <c r="M54">
         <v>15924799</v>
       </c>
-      <c r="N54" s="4" t="s">
+      <c r="N54" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P54" t="s">
@@ -9258,25 +9229,22 @@
       <c r="D55" t="s">
         <v>238</v>
       </c>
-      <c r="E55" t="s">
-        <v>239</v>
-      </c>
       <c r="F55" t="s">
         <v>239</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="3" t="s">
         <v>1864</v>
       </c>
-      <c r="K55" s="9">
+      <c r="K55">
         <v>2</v>
       </c>
       <c r="M55">
         <v>15924806</v>
       </c>
-      <c r="N55" s="4" t="s">
+      <c r="N55" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O55" t="s">
@@ -9317,13 +9285,13 @@
       <c r="J56" t="s">
         <v>1782</v>
       </c>
-      <c r="K56" s="9">
+      <c r="K56">
         <v>2</v>
       </c>
       <c r="M56">
         <v>15924808</v>
       </c>
-      <c r="N56" s="4" t="s">
+      <c r="N56" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O56" t="s">
@@ -9367,7 +9335,7 @@
       <c r="M57">
         <v>15924811</v>
       </c>
-      <c r="N57" s="4" t="s">
+      <c r="N57" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="Q57" t="s">
@@ -9402,13 +9370,13 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K58">
         <v>26</v>
       </c>
       <c r="M58">
         <v>15924820</v>
       </c>
-      <c r="N58" s="4" t="s">
+      <c r="N58" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O58" t="s">
@@ -9449,13 +9417,13 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="K59" s="9">
+      <c r="K59">
         <v>21</v>
       </c>
       <c r="M59">
         <v>15924822</v>
       </c>
-      <c r="N59" s="4" t="s">
+      <c r="N59" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O59" t="s">
@@ -9496,13 +9464,13 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="3" t="s">
         <v>1865</v>
       </c>
       <c r="M60">
         <v>15924829</v>
       </c>
-      <c r="N60" s="4" t="s">
+      <c r="N60" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O60" t="s">
@@ -9540,19 +9508,19 @@
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="3" t="s">
         <v>1866</v>
       </c>
       <c r="J61" t="s">
         <v>1783</v>
       </c>
-      <c r="L61" s="9" t="s">
+      <c r="L61" t="s">
         <v>268</v>
       </c>
       <c r="M61">
         <v>15924840</v>
       </c>
-      <c r="N61" s="4" t="s">
+      <c r="N61" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O61" t="s">
@@ -9593,13 +9561,13 @@
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K62">
         <v>2</v>
       </c>
       <c r="M62">
         <v>15924849</v>
       </c>
-      <c r="N62" s="4" t="s">
+      <c r="N62" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O62" t="s">
@@ -9628,9 +9596,6 @@
       <c r="D63" t="s">
         <v>276</v>
       </c>
-      <c r="E63" t="s">
-        <v>277</v>
-      </c>
       <c r="F63" t="s">
         <v>277</v>
       </c>
@@ -9643,7 +9608,7 @@
       <c r="M63">
         <v>15924854</v>
       </c>
-      <c r="N63" s="4" t="s">
+      <c r="N63" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P63" t="s">
@@ -9675,13 +9640,13 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="K64" s="9">
+      <c r="K64">
         <v>2</v>
       </c>
       <c r="M64">
         <v>15924862</v>
       </c>
-      <c r="N64" s="4" t="s">
+      <c r="N64" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P64" t="s">
@@ -9719,7 +9684,7 @@
       <c r="M65">
         <v>15924891</v>
       </c>
-      <c r="N65" s="4" t="s">
+      <c r="N65" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P65" t="s">
@@ -9757,7 +9722,7 @@
       <c r="M66">
         <v>15924902</v>
       </c>
-      <c r="N66" s="4" t="s">
+      <c r="N66" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O66" t="s">
@@ -9789,22 +9754,19 @@
       <c r="D67" t="s">
         <v>293</v>
       </c>
-      <c r="E67" t="s">
-        <v>294</v>
-      </c>
       <c r="F67" t="s">
         <v>294</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="3" t="s">
         <v>1867</v>
       </c>
       <c r="M67">
         <v>15924905</v>
       </c>
-      <c r="N67" s="4" t="s">
+      <c r="N67" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O67" t="s">
@@ -9836,7 +9798,7 @@
       <c r="D68" t="s">
         <v>297</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>298</v>
       </c>
       <c r="G68">
@@ -9845,7 +9807,7 @@
       <c r="M68">
         <v>15924906</v>
       </c>
-      <c r="N68" s="4" t="s">
+      <c r="N68" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P68" t="s">
@@ -9874,25 +9836,22 @@
       <c r="D69" t="s">
         <v>301</v>
       </c>
-      <c r="E69" t="s">
-        <v>302</v>
-      </c>
       <c r="F69" t="s">
         <v>302</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="3" t="s">
         <v>1868</v>
       </c>
-      <c r="K69" s="9">
+      <c r="K69">
         <v>2</v>
       </c>
       <c r="M69">
         <v>15924924</v>
       </c>
-      <c r="N69" s="4" t="s">
+      <c r="N69" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O69" t="s">
@@ -9924,16 +9883,13 @@
       <c r="D70" t="s">
         <v>305</v>
       </c>
-      <c r="E70" t="s">
-        <v>306</v>
-      </c>
       <c r="F70" t="s">
         <v>306</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="3" t="s">
         <v>1869</v>
       </c>
       <c r="I70" t="s">
@@ -9942,7 +9898,7 @@
       <c r="M70">
         <v>15924925</v>
       </c>
-      <c r="N70" s="4" t="s">
+      <c r="N70" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P70" t="s">
@@ -9977,7 +9933,7 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="3" t="s">
         <v>1870</v>
       </c>
       <c r="J71" t="s">
@@ -9986,7 +9942,7 @@
       <c r="M71">
         <v>15924928</v>
       </c>
-      <c r="N71" s="4" t="s">
+      <c r="N71" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O71" t="s">
@@ -10027,13 +9983,13 @@
       <c r="J72" t="s">
         <v>1786</v>
       </c>
-      <c r="K72" s="9">
+      <c r="K72">
         <v>2</v>
       </c>
       <c r="M72">
         <v>15924943</v>
       </c>
-      <c r="N72" s="4" t="s">
+      <c r="N72" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O72" t="s">
@@ -10071,13 +10027,13 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="K73" s="9">
+      <c r="K73">
         <v>13</v>
       </c>
       <c r="M73">
         <v>15924950</v>
       </c>
-      <c r="N73" s="4" t="s">
+      <c r="N73" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O73" t="s">
@@ -10118,13 +10074,13 @@
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="K74" s="9">
+      <c r="K74">
         <v>2</v>
       </c>
       <c r="M74">
         <v>15924952</v>
       </c>
-      <c r="N74" s="4" t="s">
+      <c r="N74" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O74" t="s">
@@ -10159,13 +10115,13 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="K75" s="9">
+      <c r="K75">
         <v>21</v>
       </c>
       <c r="M75">
         <v>15924958</v>
       </c>
-      <c r="N75" s="4" t="s">
+      <c r="N75" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O75" t="s">
@@ -10203,16 +10159,16 @@
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H76" s="3" t="s">
         <v>1871</v>
       </c>
-      <c r="K76" s="9">
+      <c r="K76">
         <v>5</v>
       </c>
       <c r="M76">
         <v>15924970</v>
       </c>
-      <c r="N76" s="4" t="s">
+      <c r="N76" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O76" t="s">
@@ -10250,13 +10206,13 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H77" s="3" t="s">
         <v>1872</v>
       </c>
       <c r="M77">
         <v>15924971</v>
       </c>
-      <c r="N77" s="4" t="s">
+      <c r="N77" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O77" t="s">
@@ -10297,7 +10253,7 @@
       <c r="M78">
         <v>15925001</v>
       </c>
-      <c r="N78" s="4" t="s">
+      <c r="N78" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P78" t="s">
@@ -10332,7 +10288,7 @@
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H79" s="3" t="s">
         <v>1873</v>
       </c>
       <c r="I79" t="s">
@@ -10341,7 +10297,7 @@
       <c r="M79">
         <v>15925004</v>
       </c>
-      <c r="N79" s="4" t="s">
+      <c r="N79" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O79" t="s">
@@ -10388,7 +10344,7 @@
       <c r="M80">
         <v>15925009</v>
       </c>
-      <c r="N80" s="4" t="s">
+      <c r="N80" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O80" t="s">
@@ -10429,16 +10385,16 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="3" t="s">
         <v>1874</v>
       </c>
-      <c r="K81" s="9">
+      <c r="K81">
         <v>5</v>
       </c>
       <c r="M81">
         <v>15925016</v>
       </c>
-      <c r="N81" s="4" t="s">
+      <c r="N81" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O81" t="s">
@@ -10470,17 +10426,16 @@
       <c r="D82" t="s">
         <v>360</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>361</v>
       </c>
-      <c r="F82" s="2"/>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="M82">
         <v>15925022</v>
       </c>
-      <c r="N82" s="4" t="s">
+      <c r="N82" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O82" t="s">
@@ -10521,7 +10476,7 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H83" s="3" t="s">
         <v>1875</v>
       </c>
       <c r="J83" t="s">
@@ -10530,7 +10485,7 @@
       <c r="M83">
         <v>15925026</v>
       </c>
-      <c r="N83" s="4" t="s">
+      <c r="N83" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P83" t="s">
@@ -10568,7 +10523,7 @@
       <c r="M84">
         <v>15925054</v>
       </c>
-      <c r="N84" s="4" t="s">
+      <c r="N84" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O84" t="s">
@@ -10603,13 +10558,13 @@
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="K85" s="9">
+      <c r="K85">
         <v>2</v>
       </c>
       <c r="M85">
         <v>15925060</v>
       </c>
-      <c r="N85" s="4" t="s">
+      <c r="N85" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P85" t="s">
@@ -10647,7 +10602,7 @@
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="3" t="s">
         <v>1876</v>
       </c>
       <c r="J86" t="s">
@@ -10656,7 +10611,7 @@
       <c r="M86">
         <v>15925062</v>
       </c>
-      <c r="N86" s="4" t="s">
+      <c r="N86" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O86" t="s">
@@ -10697,7 +10652,7 @@
       <c r="M87">
         <v>15925074</v>
       </c>
-      <c r="N87" s="4" t="s">
+      <c r="N87" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O87" t="s">
@@ -10738,19 +10693,19 @@
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H88" s="3" t="s">
         <v>1877</v>
       </c>
       <c r="J88" t="s">
         <v>1791</v>
       </c>
-      <c r="K88" s="9">
+      <c r="K88">
         <v>70</v>
       </c>
       <c r="M88">
         <v>15925075</v>
       </c>
-      <c r="N88" s="4" t="s">
+      <c r="N88" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O88" t="s">
@@ -10794,7 +10749,7 @@
       <c r="M89">
         <v>15925078</v>
       </c>
-      <c r="N89" s="4" t="s">
+      <c r="N89" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O89" t="s">
@@ -10829,13 +10784,13 @@
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H90" s="3" t="s">
         <v>1878</v>
       </c>
       <c r="M90">
         <v>15925090</v>
       </c>
-      <c r="N90" s="4" t="s">
+      <c r="N90" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O90" t="s">
@@ -10876,13 +10831,13 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="K91" s="9">
+      <c r="K91">
         <v>26</v>
       </c>
       <c r="M91">
         <v>15925091</v>
       </c>
-      <c r="N91" s="4" t="s">
+      <c r="N91" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O91" t="s">
@@ -10920,19 +10875,19 @@
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H92" s="3" t="s">
         <v>1879</v>
       </c>
       <c r="J92" t="s">
         <v>1793</v>
       </c>
-      <c r="K92" s="9">
+      <c r="K92">
         <v>4</v>
       </c>
       <c r="M92">
         <v>15925102</v>
       </c>
-      <c r="N92" s="4" t="s">
+      <c r="N92" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P92" t="s">
@@ -10970,13 +10925,13 @@
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="K93" s="9">
+      <c r="K93">
         <v>6</v>
       </c>
       <c r="M93">
         <v>15925109</v>
       </c>
-      <c r="N93" s="4" t="s">
+      <c r="N93" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O93" t="s">
@@ -11017,16 +10972,16 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="H94" s="3" t="s">
         <v>1880</v>
       </c>
-      <c r="L94" s="9" t="s">
+      <c r="L94" t="s">
         <v>418</v>
       </c>
       <c r="M94">
         <v>15925136</v>
       </c>
-      <c r="N94" s="4" t="s">
+      <c r="N94" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O94" t="s">
@@ -11067,16 +11022,16 @@
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95" s="4" t="s">
+      <c r="H95" s="3" t="s">
         <v>1881</v>
       </c>
-      <c r="K95" s="9">
+      <c r="K95">
         <v>70</v>
       </c>
       <c r="M95">
         <v>15925141</v>
       </c>
-      <c r="N95" s="4" t="s">
+      <c r="N95" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O95" t="s">
@@ -11120,7 +11075,7 @@
       <c r="M96">
         <v>15925145</v>
       </c>
-      <c r="N96" s="4" t="s">
+      <c r="N96" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O96" t="s">
@@ -11161,13 +11116,13 @@
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="K97" s="9">
+      <c r="K97">
         <v>36</v>
       </c>
       <c r="M97">
         <v>15925146</v>
       </c>
-      <c r="N97" s="4" t="s">
+      <c r="N97" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O97" t="s">
@@ -11205,13 +11160,13 @@
       <c r="G98">
         <v>0</v>
       </c>
-      <c r="K98" s="9">
+      <c r="K98">
         <v>2</v>
       </c>
       <c r="M98">
         <v>15925149</v>
       </c>
-      <c r="N98" s="4" t="s">
+      <c r="N98" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P98" t="s">
@@ -11246,7 +11201,7 @@
       <c r="M99">
         <v>15925160</v>
       </c>
-      <c r="N99" s="4" t="s">
+      <c r="N99" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P99" t="s">
@@ -11275,22 +11230,19 @@
       <c r="D100" t="s">
         <v>442</v>
       </c>
-      <c r="E100" t="s">
-        <v>443</v>
-      </c>
       <c r="F100" t="s">
         <v>443</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="K100" s="9">
+      <c r="K100">
         <v>26</v>
       </c>
       <c r="M100">
         <v>15925165</v>
       </c>
-      <c r="N100" s="4" t="s">
+      <c r="N100" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O100" t="s">
@@ -11322,9 +11274,6 @@
       <c r="D101" t="s">
         <v>445</v>
       </c>
-      <c r="E101" t="s">
-        <v>446</v>
-      </c>
       <c r="F101" t="s">
         <v>446</v>
       </c>
@@ -11337,7 +11286,7 @@
       <c r="M101">
         <v>15925166</v>
       </c>
-      <c r="N101" s="4" t="s">
+      <c r="N101" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O101" t="s">
@@ -11378,7 +11327,7 @@
       <c r="M102">
         <v>15925178</v>
       </c>
-      <c r="N102" s="4" t="s">
+      <c r="N102" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O102" t="s">
@@ -11416,13 +11365,13 @@
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="K103" s="9">
+      <c r="K103">
         <v>21</v>
       </c>
       <c r="M103">
         <v>15925187</v>
       </c>
-      <c r="N103" s="4" t="s">
+      <c r="N103" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O103" t="s">
@@ -11463,13 +11412,13 @@
       <c r="G104">
         <v>0</v>
       </c>
-      <c r="H104" s="4" t="s">
+      <c r="H104" s="3" t="s">
         <v>1882</v>
       </c>
       <c r="M104">
         <v>15925197</v>
       </c>
-      <c r="N104" s="4" t="s">
+      <c r="N104" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P104" t="s">
@@ -11510,13 +11459,13 @@
       <c r="I105" t="s">
         <v>1736</v>
       </c>
-      <c r="K105" s="9">
+      <c r="K105">
         <v>6</v>
       </c>
       <c r="M105">
         <v>15925199</v>
       </c>
-      <c r="N105" s="4" t="s">
+      <c r="N105" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O105" t="s">
@@ -11557,16 +11506,16 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="H106" s="4" t="s">
+      <c r="H106" s="3" t="s">
         <v>1883</v>
       </c>
-      <c r="K106" s="9">
+      <c r="K106">
         <v>2</v>
       </c>
       <c r="M106">
         <v>15925219</v>
       </c>
-      <c r="N106" s="4" t="s">
+      <c r="N106" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O106" t="s">
@@ -11604,13 +11553,13 @@
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="K107" s="9">
+      <c r="K107">
         <v>5</v>
       </c>
       <c r="M107">
         <v>15925220</v>
       </c>
-      <c r="N107" s="4" t="s">
+      <c r="N107" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O107" t="s">
@@ -11651,13 +11600,13 @@
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="L108" s="9" t="s">
+      <c r="L108" t="s">
         <v>1999</v>
       </c>
       <c r="M108">
         <v>15925224</v>
       </c>
-      <c r="N108" s="4" t="s">
+      <c r="N108" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P108" t="s">
@@ -11692,13 +11641,13 @@
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="H109" s="4" t="s">
+      <c r="H109" s="3" t="s">
         <v>1884</v>
       </c>
       <c r="M109">
         <v>15925236</v>
       </c>
-      <c r="N109" s="4" t="s">
+      <c r="N109" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O109" t="s">
@@ -11736,13 +11685,13 @@
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="K110" s="9">
+      <c r="K110">
         <v>2</v>
       </c>
       <c r="M110">
         <v>15925239</v>
       </c>
-      <c r="N110" s="4" t="s">
+      <c r="N110" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O110" t="s">
@@ -11780,13 +11729,13 @@
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="H111" s="4" t="s">
+      <c r="H111" s="3" t="s">
         <v>1885</v>
       </c>
       <c r="M111">
         <v>15925245</v>
       </c>
-      <c r="N111" s="4" t="s">
+      <c r="N111" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O111" t="s">
@@ -11830,7 +11779,7 @@
       <c r="M112">
         <v>15925247</v>
       </c>
-      <c r="N112" s="4" t="s">
+      <c r="N112" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O112" t="s">
@@ -11871,16 +11820,16 @@
       <c r="G113">
         <v>0</v>
       </c>
-      <c r="H113" s="4" t="s">
+      <c r="H113" s="3" t="s">
         <v>1886</v>
       </c>
-      <c r="K113" s="9">
+      <c r="K113">
         <v>2</v>
       </c>
       <c r="M113">
         <v>15925254</v>
       </c>
-      <c r="N113" s="4" t="s">
+      <c r="N113" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O113" t="s">
@@ -11918,13 +11867,13 @@
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="K114" s="9">
+      <c r="K114">
         <v>2</v>
       </c>
       <c r="M114">
         <v>15925256</v>
       </c>
-      <c r="N114" s="4" t="s">
+      <c r="N114" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P114" t="s">
@@ -11962,7 +11911,7 @@
       <c r="M115">
         <v>15925271</v>
       </c>
-      <c r="N115" s="4" t="s">
+      <c r="N115" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P115" t="s">
@@ -12000,16 +11949,16 @@
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="H116" s="4" t="s">
+      <c r="H116" s="3" t="s">
         <v>1887</v>
       </c>
-      <c r="K116" s="9">
+      <c r="K116">
         <v>6</v>
       </c>
       <c r="M116">
         <v>15925286</v>
       </c>
-      <c r="N116" s="4" t="s">
+      <c r="N116" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O116" t="s">
@@ -12050,7 +11999,7 @@
       <c r="M117">
         <v>15925290</v>
       </c>
-      <c r="N117" s="4" t="s">
+      <c r="N117" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O117" t="s">
@@ -12082,25 +12031,22 @@
       <c r="D118" t="s">
         <v>517</v>
       </c>
-      <c r="E118" t="s">
-        <v>518</v>
-      </c>
       <c r="F118" t="s">
         <v>518</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118" s="4" t="s">
+      <c r="H118" s="3" t="s">
         <v>1888</v>
       </c>
-      <c r="K118" s="9">
+      <c r="K118">
         <v>2</v>
       </c>
       <c r="M118">
         <v>15925296</v>
       </c>
-      <c r="N118" s="4" t="s">
+      <c r="N118" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O118" t="s">
@@ -12138,7 +12084,7 @@
       <c r="M119">
         <v>15925299</v>
       </c>
-      <c r="N119" s="4" t="s">
+      <c r="N119" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P119" t="s">
@@ -12167,25 +12113,22 @@
       <c r="D120" t="s">
         <v>523</v>
       </c>
-      <c r="E120" t="s">
-        <v>524</v>
-      </c>
       <c r="F120" t="s">
         <v>524</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="H120" s="4" t="s">
+      <c r="H120" s="3" t="s">
         <v>1889</v>
       </c>
-      <c r="K120" s="9">
+      <c r="K120">
         <v>2</v>
       </c>
       <c r="M120">
         <v>15925301</v>
       </c>
-      <c r="N120" s="4" t="s">
+      <c r="N120" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O120" t="s">
@@ -12217,9 +12160,6 @@
       <c r="D121" t="s">
         <v>527</v>
       </c>
-      <c r="E121" t="s">
-        <v>528</v>
-      </c>
       <c r="F121" t="s">
         <v>528</v>
       </c>
@@ -12229,7 +12169,7 @@
       <c r="M121">
         <v>15925324</v>
       </c>
-      <c r="N121" s="4" t="s">
+      <c r="N121" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O121" t="s">
@@ -12261,22 +12201,19 @@
       <c r="D122" t="s">
         <v>530</v>
       </c>
-      <c r="E122" t="s">
-        <v>531</v>
-      </c>
       <c r="F122" t="s">
         <v>531</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
-      <c r="K122" s="9">
+      <c r="K122">
         <v>2</v>
       </c>
       <c r="M122">
         <v>15925331</v>
       </c>
-      <c r="N122" s="4" t="s">
+      <c r="N122" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O122" t="s">
@@ -12308,9 +12245,6 @@
       <c r="D123" t="s">
         <v>534</v>
       </c>
-      <c r="E123" t="s">
-        <v>535</v>
-      </c>
       <c r="F123" t="s">
         <v>535</v>
       </c>
@@ -12320,7 +12254,7 @@
       <c r="M123">
         <v>15925337</v>
       </c>
-      <c r="N123" s="4" t="s">
+      <c r="N123" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O123" t="s">
@@ -12361,7 +12295,7 @@
       <c r="M124">
         <v>15925343</v>
       </c>
-      <c r="N124" s="4" t="s">
+      <c r="N124" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O124" t="s">
@@ -12402,16 +12336,16 @@
       <c r="G125">
         <v>0</v>
       </c>
-      <c r="H125" s="4" t="s">
+      <c r="H125" s="3" t="s">
         <v>1890</v>
       </c>
-      <c r="K125" s="9">
+      <c r="K125">
         <v>21</v>
       </c>
       <c r="M125">
         <v>15925351</v>
       </c>
-      <c r="N125" s="4" t="s">
+      <c r="N125" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O125" t="s">
@@ -12440,25 +12374,22 @@
       <c r="D126" t="s">
         <v>546</v>
       </c>
-      <c r="E126" t="s">
-        <v>547</v>
-      </c>
       <c r="F126" t="s">
         <v>547</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
-      <c r="H126" s="4" t="s">
+      <c r="H126" s="3" t="s">
         <v>1891</v>
       </c>
-      <c r="K126" s="9">
+      <c r="K126">
         <v>13</v>
       </c>
       <c r="M126">
         <v>15925354</v>
       </c>
-      <c r="N126" s="4" t="s">
+      <c r="N126" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O126" t="s">
@@ -12502,13 +12433,13 @@
       <c r="J127" t="s">
         <v>1795</v>
       </c>
-      <c r="K127" s="9">
+      <c r="K127">
         <v>39</v>
       </c>
       <c r="M127">
         <v>15925366</v>
       </c>
-      <c r="N127" s="4" t="s">
+      <c r="N127" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O127" t="s">
@@ -12540,19 +12471,19 @@
       <c r="D128" t="s">
         <v>555</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>556</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="K128" s="9">
+      <c r="K128">
         <v>2</v>
       </c>
       <c r="M128">
         <v>15925370</v>
       </c>
-      <c r="N128" s="4" t="s">
+      <c r="N128" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O128" t="s">
@@ -12596,7 +12527,7 @@
       <c r="M129">
         <v>15925372</v>
       </c>
-      <c r="N129" s="4" t="s">
+      <c r="N129" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P129" t="s">
@@ -12625,25 +12556,22 @@
       <c r="D130" t="s">
         <v>563</v>
       </c>
-      <c r="E130" t="s">
-        <v>564</v>
-      </c>
       <c r="F130" t="s">
         <v>564</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
-      <c r="H130" s="4" t="s">
+      <c r="H130" s="3" t="s">
         <v>1892</v>
       </c>
-      <c r="K130" s="9">
+      <c r="K130">
         <v>2</v>
       </c>
       <c r="M130">
         <v>15925377</v>
       </c>
-      <c r="N130" s="4" t="s">
+      <c r="N130" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P130" t="s">
@@ -12681,13 +12609,13 @@
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="H131" s="4" t="s">
+      <c r="H131" s="3" t="s">
         <v>1893</v>
       </c>
       <c r="M131">
         <v>15925392</v>
       </c>
-      <c r="N131" s="4" t="s">
+      <c r="N131" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O131" t="s">
@@ -12725,7 +12653,7 @@
       <c r="M132">
         <v>15925397</v>
       </c>
-      <c r="N132" s="4" t="s">
+      <c r="N132" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P132" t="s">
@@ -12754,25 +12682,22 @@
       <c r="D133" t="s">
         <v>575</v>
       </c>
-      <c r="E133" t="s">
-        <v>576</v>
-      </c>
       <c r="F133" t="s">
         <v>576</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="H133" s="4" t="s">
+      <c r="H133" s="3" t="s">
         <v>1894</v>
       </c>
-      <c r="K133" s="9">
+      <c r="K133">
         <v>70</v>
       </c>
       <c r="M133">
         <v>15925400</v>
       </c>
-      <c r="N133" s="4" t="s">
+      <c r="N133" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O133" t="s">
@@ -12804,16 +12729,13 @@
       <c r="D134" t="s">
         <v>579</v>
       </c>
-      <c r="E134" t="s">
-        <v>580</v>
-      </c>
       <c r="F134" t="s">
         <v>580</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
-      <c r="H134" s="4" t="s">
+      <c r="H134" s="3" t="s">
         <v>1895</v>
       </c>
       <c r="I134" t="s">
@@ -12822,7 +12744,7 @@
       <c r="M134">
         <v>15925416</v>
       </c>
-      <c r="N134" s="4" t="s">
+      <c r="N134" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O134" t="s">
@@ -12866,7 +12788,7 @@
       <c r="M135">
         <v>15925418</v>
       </c>
-      <c r="N135" s="4" t="s">
+      <c r="N135" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O135" t="s">
@@ -12904,13 +12826,13 @@
       <c r="G136">
         <v>0</v>
       </c>
-      <c r="H136" s="4" t="s">
+      <c r="H136" s="3" t="s">
         <v>1896</v>
       </c>
       <c r="M136">
         <v>15925424</v>
       </c>
-      <c r="N136" s="4" t="s">
+      <c r="N136" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O136" t="s">
@@ -12948,13 +12870,13 @@
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="H137" s="4" t="s">
+      <c r="H137" s="3" t="s">
         <v>1897</v>
       </c>
       <c r="M137">
         <v>15925429</v>
       </c>
-      <c r="N137" s="4" t="s">
+      <c r="N137" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P137" t="s">
@@ -12983,22 +12905,19 @@
       <c r="D138" t="s">
         <v>595</v>
       </c>
-      <c r="E138" t="s">
-        <v>596</v>
-      </c>
       <c r="F138" t="s">
         <v>596</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
-      <c r="K138" s="9">
+      <c r="K138">
         <v>15</v>
       </c>
       <c r="M138">
         <v>15925447</v>
       </c>
-      <c r="N138" s="4" t="s">
+      <c r="N138" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O138" t="s">
@@ -13030,22 +12949,19 @@
       <c r="D139" t="s">
         <v>599</v>
       </c>
-      <c r="E139" t="s">
-        <v>600</v>
-      </c>
       <c r="F139" t="s">
         <v>600</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="L139" s="9" t="s">
+      <c r="L139" t="s">
         <v>601</v>
       </c>
       <c r="M139">
         <v>15925450</v>
       </c>
-      <c r="N139" s="4" t="s">
+      <c r="N139" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O139" t="s">
@@ -13083,13 +12999,13 @@
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="K140" s="9">
+      <c r="K140">
         <v>2</v>
       </c>
       <c r="M140">
         <v>15925451</v>
       </c>
-      <c r="N140" s="4" t="s">
+      <c r="N140" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O140" t="s">
@@ -13130,16 +13046,16 @@
       <c r="G141">
         <v>0</v>
       </c>
-      <c r="H141" s="4" t="s">
+      <c r="H141" s="3" t="s">
         <v>1898</v>
       </c>
-      <c r="K141" s="9">
+      <c r="K141">
         <v>21</v>
       </c>
       <c r="M141">
         <v>15925452</v>
       </c>
-      <c r="N141" s="4" t="s">
+      <c r="N141" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P141" t="s">
@@ -13165,9 +13081,6 @@
       <c r="D142" t="s">
         <v>614</v>
       </c>
-      <c r="E142" t="s">
-        <v>615</v>
-      </c>
       <c r="F142" t="s">
         <v>615</v>
       </c>
@@ -13177,13 +13090,13 @@
       <c r="J142" t="s">
         <v>1796</v>
       </c>
-      <c r="L142" s="9" t="s">
+      <c r="L142" t="s">
         <v>616</v>
       </c>
       <c r="M142">
         <v>15925458</v>
       </c>
-      <c r="N142" s="4" t="s">
+      <c r="N142" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P142" t="s">
@@ -13218,16 +13131,16 @@
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="H143" s="4" t="s">
+      <c r="H143" s="3" t="s">
         <v>1899</v>
       </c>
-      <c r="K143" s="9">
+      <c r="K143">
         <v>52</v>
       </c>
       <c r="M143">
         <v>15925460</v>
       </c>
-      <c r="N143" s="4" t="s">
+      <c r="N143" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O143" t="s">
@@ -13268,13 +13181,13 @@
       <c r="G144">
         <v>0</v>
       </c>
-      <c r="K144" s="9">
+      <c r="K144">
         <v>68</v>
       </c>
       <c r="M144">
         <v>15925465</v>
       </c>
-      <c r="N144" s="4" t="s">
+      <c r="N144" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O144" t="s">
@@ -13315,16 +13228,16 @@
       <c r="G145">
         <v>0</v>
       </c>
-      <c r="H145" s="4" t="s">
+      <c r="H145" s="3" t="s">
         <v>1900</v>
       </c>
-      <c r="K145" s="9">
+      <c r="K145">
         <v>5</v>
       </c>
       <c r="M145">
         <v>15925467</v>
       </c>
-      <c r="N145" s="4" t="s">
+      <c r="N145" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O145" t="s">
@@ -13356,25 +13269,22 @@
       <c r="D146" t="s">
         <v>634</v>
       </c>
-      <c r="E146" t="s">
-        <v>635</v>
-      </c>
       <c r="F146" t="s">
         <v>635</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="H146" s="4" t="s">
+      <c r="H146" s="3" t="s">
         <v>1901</v>
       </c>
-      <c r="K146" s="9">
+      <c r="K146">
         <v>26</v>
       </c>
       <c r="M146">
         <v>15925482</v>
       </c>
-      <c r="N146" s="4" t="s">
+      <c r="N146" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O146" t="s">
@@ -13406,25 +13316,22 @@
       <c r="D147" t="s">
         <v>637</v>
       </c>
-      <c r="E147" t="s">
-        <v>638</v>
-      </c>
       <c r="F147" t="s">
         <v>638</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="H147" s="4" t="s">
+      <c r="H147" s="3" t="s">
         <v>1902</v>
       </c>
-      <c r="K147" s="9">
+      <c r="K147">
         <v>2</v>
       </c>
       <c r="M147">
         <v>15925483</v>
       </c>
-      <c r="N147" s="4" t="s">
+      <c r="N147" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O147" t="s">
@@ -13468,7 +13375,7 @@
       <c r="M148">
         <v>15925488</v>
       </c>
-      <c r="N148" s="4" t="s">
+      <c r="N148" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O148" t="s">
@@ -13512,7 +13419,7 @@
       <c r="M149">
         <v>15925507</v>
       </c>
-      <c r="N149" s="4" t="s">
+      <c r="N149" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P149" t="s">
@@ -13541,9 +13448,6 @@
       <c r="D150" t="s">
         <v>649</v>
       </c>
-      <c r="E150" t="s">
-        <v>650</v>
-      </c>
       <c r="F150" t="s">
         <v>650</v>
       </c>
@@ -13553,7 +13457,7 @@
       <c r="M150">
         <v>15925509</v>
       </c>
-      <c r="N150" s="4" t="s">
+      <c r="N150" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O150" t="s">
@@ -13591,16 +13495,16 @@
       <c r="G151">
         <v>0</v>
       </c>
-      <c r="H151" s="4" t="s">
+      <c r="H151" s="3" t="s">
         <v>1903</v>
       </c>
-      <c r="K151" s="9">
+      <c r="K151">
         <v>2</v>
       </c>
       <c r="M151">
         <v>15925519</v>
       </c>
-      <c r="N151" s="4" t="s">
+      <c r="N151" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O151" t="s">
@@ -13632,9 +13536,6 @@
       <c r="D152" t="s">
         <v>657</v>
       </c>
-      <c r="E152" t="s">
-        <v>658</v>
-      </c>
       <c r="F152" t="s">
         <v>658</v>
       </c>
@@ -13644,7 +13545,7 @@
       <c r="M152">
         <v>15925527</v>
       </c>
-      <c r="N152" s="4" t="s">
+      <c r="N152" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P152" t="s">
@@ -13682,13 +13583,13 @@
       <c r="G153">
         <v>0</v>
       </c>
-      <c r="H153" s="4" t="s">
+      <c r="H153" s="3" t="s">
         <v>1904</v>
       </c>
       <c r="M153">
         <v>15925531</v>
       </c>
-      <c r="N153" s="4" t="s">
+      <c r="N153" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O153" t="s">
@@ -13729,16 +13630,16 @@
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="H154" s="4" t="s">
+      <c r="H154" s="3" t="s">
         <v>1905</v>
       </c>
-      <c r="K154" s="9">
+      <c r="K154">
         <v>4</v>
       </c>
       <c r="M154">
         <v>15925534</v>
       </c>
-      <c r="N154" s="4" t="s">
+      <c r="N154" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P154" t="s">
@@ -13764,22 +13665,19 @@
       <c r="D155" t="s">
         <v>671</v>
       </c>
-      <c r="E155" t="s">
-        <v>672</v>
-      </c>
       <c r="F155" t="s">
         <v>672</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
-      <c r="K155" s="9">
+      <c r="K155">
         <v>52</v>
       </c>
       <c r="M155">
         <v>15925568</v>
       </c>
-      <c r="N155" s="4" t="s">
+      <c r="N155" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O155" t="s">
@@ -13820,13 +13718,13 @@
       <c r="J156" t="s">
         <v>1797</v>
       </c>
-      <c r="K156" s="9">
+      <c r="K156">
         <v>6</v>
       </c>
       <c r="M156">
         <v>15925571</v>
       </c>
-      <c r="N156" s="4" t="s">
+      <c r="N156" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P156" t="s">
@@ -13852,22 +13750,19 @@
       <c r="D157" t="s">
         <v>679</v>
       </c>
-      <c r="E157" t="s">
-        <v>680</v>
-      </c>
       <c r="F157" t="s">
         <v>680</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="H157" s="4" t="s">
+      <c r="H157" s="3" t="s">
         <v>1906</v>
       </c>
       <c r="M157">
         <v>15925574</v>
       </c>
-      <c r="N157" s="4" t="s">
+      <c r="N157" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O157" t="s">
@@ -13908,7 +13803,7 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="H158" s="4" t="s">
+      <c r="H158" s="3" t="s">
         <v>1907</v>
       </c>
       <c r="I158" t="s">
@@ -13917,7 +13812,7 @@
       <c r="M158">
         <v>15925596</v>
       </c>
-      <c r="N158" s="4" t="s">
+      <c r="N158" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O158" t="s">
@@ -13949,22 +13844,19 @@
       <c r="D159" t="s">
         <v>686</v>
       </c>
-      <c r="E159" t="s">
-        <v>687</v>
-      </c>
       <c r="F159" t="s">
         <v>687</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
-      <c r="K159" s="9">
+      <c r="K159">
         <v>2</v>
       </c>
       <c r="M159">
         <v>15925601</v>
       </c>
-      <c r="N159" s="4" t="s">
+      <c r="N159" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O159" t="s">
@@ -14008,7 +13900,7 @@
       <c r="M160">
         <v>15925604</v>
       </c>
-      <c r="N160" s="4" t="s">
+      <c r="N160" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O160" t="s">
@@ -14046,13 +13938,13 @@
       <c r="G161">
         <v>0</v>
       </c>
-      <c r="L161" s="9" t="s">
+      <c r="L161" t="s">
         <v>697</v>
       </c>
       <c r="M161">
         <v>15925606</v>
       </c>
-      <c r="N161" s="4" t="s">
+      <c r="N161" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P161" t="s">
@@ -14087,13 +13979,13 @@
       <c r="G162">
         <v>0</v>
       </c>
-      <c r="H162" s="4" t="s">
+      <c r="H162" s="3" t="s">
         <v>1908</v>
       </c>
       <c r="M162">
         <v>15925610</v>
       </c>
-      <c r="N162" s="4" t="s">
+      <c r="N162" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O162" t="s">
@@ -14131,13 +14023,13 @@
       <c r="G163">
         <v>0</v>
       </c>
-      <c r="H163" s="4" t="s">
+      <c r="H163" s="3" t="s">
         <v>1909</v>
       </c>
       <c r="M163">
         <v>15925612</v>
       </c>
-      <c r="N163" s="4" t="s">
+      <c r="N163" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P163" t="s">
@@ -14166,22 +14058,19 @@
       <c r="D164" t="s">
         <v>707</v>
       </c>
-      <c r="E164" t="s">
-        <v>708</v>
-      </c>
       <c r="F164" t="s">
         <v>708</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
-      <c r="H164" s="4" t="s">
+      <c r="H164" s="3" t="s">
         <v>1910</v>
       </c>
       <c r="M164">
         <v>15925617</v>
       </c>
-      <c r="N164" s="4" t="s">
+      <c r="N164" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O164" t="s">
@@ -14222,16 +14111,16 @@
       <c r="G165">
         <v>0</v>
       </c>
-      <c r="H165" s="4" t="s">
+      <c r="H165" s="3" t="s">
         <v>1911</v>
       </c>
-      <c r="K165" s="9">
+      <c r="K165">
         <v>21</v>
       </c>
       <c r="M165">
         <v>15925619</v>
       </c>
-      <c r="N165" s="4" t="s">
+      <c r="N165" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O165" t="s">
@@ -14266,13 +14155,13 @@
       <c r="G166">
         <v>0</v>
       </c>
-      <c r="H166" s="4" t="s">
+      <c r="H166" s="3" t="s">
         <v>1912</v>
       </c>
       <c r="M166">
         <v>15925629</v>
       </c>
-      <c r="N166" s="4" t="s">
+      <c r="N166" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O166" t="s">
@@ -14310,7 +14199,7 @@
       <c r="M167">
         <v>15925644</v>
       </c>
-      <c r="N167" s="4" t="s">
+      <c r="N167" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P167" t="s">
@@ -14345,7 +14234,7 @@
       <c r="M168">
         <v>15925650</v>
       </c>
-      <c r="N168" s="4" t="s">
+      <c r="N168" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O168" t="s">
@@ -14389,7 +14278,7 @@
       <c r="M169">
         <v>15925657</v>
       </c>
-      <c r="N169" s="4" t="s">
+      <c r="N169" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P169" t="s">
@@ -14430,13 +14319,13 @@
       <c r="J170" t="s">
         <v>1799</v>
       </c>
-      <c r="K170" s="9">
+      <c r="K170">
         <v>6</v>
       </c>
       <c r="M170">
         <v>15925673</v>
       </c>
-      <c r="N170" s="4" t="s">
+      <c r="N170" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O170" t="s">
@@ -14477,13 +14366,13 @@
       <c r="G171">
         <v>0</v>
       </c>
-      <c r="H171" s="4" t="s">
+      <c r="H171" s="3" t="s">
         <v>1913</v>
       </c>
       <c r="M171">
         <v>15925687</v>
       </c>
-      <c r="N171" s="4" t="s">
+      <c r="N171" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O171" t="s">
@@ -14512,28 +14401,25 @@
       <c r="D172" t="s">
         <v>741</v>
       </c>
-      <c r="E172" t="s">
-        <v>742</v>
-      </c>
       <c r="F172" t="s">
         <v>742</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
-      <c r="H172" s="4" t="s">
+      <c r="H172" s="3" t="s">
         <v>1914</v>
       </c>
       <c r="I172" t="s">
         <v>1741</v>
       </c>
-      <c r="K172" s="9">
+      <c r="K172">
         <v>2</v>
       </c>
       <c r="M172">
         <v>15925688</v>
       </c>
-      <c r="N172" s="4" t="s">
+      <c r="N172" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O172" t="s">
@@ -14571,16 +14457,16 @@
       <c r="G173">
         <v>0</v>
       </c>
-      <c r="H173" s="4" t="s">
+      <c r="H173" s="3" t="s">
         <v>1915</v>
       </c>
-      <c r="K173" s="9">
+      <c r="K173">
         <v>70</v>
       </c>
       <c r="M173">
         <v>15925690</v>
       </c>
-      <c r="N173" s="4" t="s">
+      <c r="N173" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P173" t="s">
@@ -14618,13 +14504,13 @@
       <c r="G174">
         <v>0</v>
       </c>
-      <c r="H174" s="4" t="s">
+      <c r="H174" s="3" t="s">
         <v>1916</v>
       </c>
       <c r="M174">
         <v>15925701</v>
       </c>
-      <c r="N174" s="4" t="s">
+      <c r="N174" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O174" t="s">
@@ -14653,25 +14539,22 @@
       <c r="D175" t="s">
         <v>754</v>
       </c>
-      <c r="E175" t="s">
-        <v>755</v>
-      </c>
       <c r="F175" t="s">
         <v>755</v>
       </c>
       <c r="G175">
         <v>0</v>
       </c>
-      <c r="H175" s="4" t="s">
+      <c r="H175" s="3" t="s">
         <v>1917</v>
       </c>
-      <c r="K175" s="9">
+      <c r="K175">
         <v>6</v>
       </c>
       <c r="M175">
         <v>15925706</v>
       </c>
-      <c r="N175" s="4" t="s">
+      <c r="N175" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O175" t="s">
@@ -14706,7 +14589,7 @@
       <c r="G176">
         <v>0</v>
       </c>
-      <c r="H176" s="4" t="s">
+      <c r="H176" s="3" t="s">
         <v>1918</v>
       </c>
       <c r="J176" t="s">
@@ -14715,7 +14598,7 @@
       <c r="M176">
         <v>15925720</v>
       </c>
-      <c r="N176" s="4" t="s">
+      <c r="N176" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O176" t="s">
@@ -14759,7 +14642,7 @@
       <c r="M177">
         <v>15925721</v>
       </c>
-      <c r="N177" s="4" t="s">
+      <c r="N177" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O177" t="s">
@@ -14788,25 +14671,22 @@
       <c r="D178" t="s">
         <v>764</v>
       </c>
-      <c r="E178" t="s">
-        <v>765</v>
-      </c>
       <c r="F178" t="s">
         <v>765</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
-      <c r="H178" s="4" t="s">
+      <c r="H178" s="3" t="s">
         <v>1919</v>
       </c>
-      <c r="K178" s="9">
+      <c r="K178">
         <v>68</v>
       </c>
       <c r="M178">
         <v>15925732</v>
       </c>
-      <c r="N178" s="4" t="s">
+      <c r="N178" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P178" t="s">
@@ -14841,13 +14721,13 @@
       <c r="G179">
         <v>0</v>
       </c>
-      <c r="H179" s="4" t="s">
+      <c r="H179" s="3" t="s">
         <v>1920</v>
       </c>
       <c r="M179">
         <v>15925752</v>
       </c>
-      <c r="N179" s="4" t="s">
+      <c r="N179" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O179" t="s">
@@ -14888,7 +14768,7 @@
       <c r="M180">
         <v>15925758</v>
       </c>
-      <c r="N180" s="4" t="s">
+      <c r="N180" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P180" t="s">
@@ -14926,13 +14806,13 @@
       <c r="G181">
         <v>0</v>
       </c>
-      <c r="K181" s="9">
+      <c r="K181">
         <v>2</v>
       </c>
       <c r="M181">
         <v>15925774</v>
       </c>
-      <c r="N181" s="4" t="s">
+      <c r="N181" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P181" t="s">
@@ -14976,7 +14856,7 @@
       <c r="M182">
         <v>15925779</v>
       </c>
-      <c r="N182" s="4" t="s">
+      <c r="N182" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O182" t="s">
@@ -15020,7 +14900,7 @@
       <c r="M183">
         <v>15925780</v>
       </c>
-      <c r="N183" s="4" t="s">
+      <c r="N183" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P183" t="s">
@@ -15058,19 +14938,19 @@
       <c r="G184">
         <v>0</v>
       </c>
-      <c r="H184" s="4" t="s">
+      <c r="H184" s="3" t="s">
         <v>1921</v>
       </c>
       <c r="I184" t="s">
         <v>1742</v>
       </c>
-      <c r="K184" s="9">
+      <c r="K184">
         <v>21</v>
       </c>
       <c r="M184">
         <v>15925782</v>
       </c>
-      <c r="N184" s="4" t="s">
+      <c r="N184" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O184" t="s">
@@ -15111,13 +14991,13 @@
       <c r="G185">
         <v>0</v>
       </c>
-      <c r="K185" s="9">
+      <c r="K185">
         <v>2</v>
       </c>
       <c r="M185">
         <v>15925797</v>
       </c>
-      <c r="N185" s="4" t="s">
+      <c r="N185" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P185" t="s">
@@ -15155,16 +15035,16 @@
       <c r="G186">
         <v>0</v>
       </c>
-      <c r="H186" s="4" t="s">
+      <c r="H186" s="3" t="s">
         <v>1922</v>
       </c>
-      <c r="K186" s="9">
+      <c r="K186">
         <v>2</v>
       </c>
       <c r="M186">
         <v>15925806</v>
       </c>
-      <c r="N186" s="4" t="s">
+      <c r="N186" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P186" t="s">
@@ -15202,7 +15082,7 @@
       <c r="M187">
         <v>15925809</v>
       </c>
-      <c r="N187" s="4" t="s">
+      <c r="N187" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O187" t="s">
@@ -15240,16 +15120,16 @@
       <c r="G188">
         <v>0</v>
       </c>
-      <c r="H188" s="4" t="s">
+      <c r="H188" s="3" t="s">
         <v>1923</v>
       </c>
-      <c r="L188" s="9" t="s">
+      <c r="L188" t="s">
         <v>810</v>
       </c>
       <c r="M188">
         <v>15925812</v>
       </c>
-      <c r="N188" s="4" t="s">
+      <c r="N188" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O188" t="s">
@@ -15290,13 +15170,13 @@
       <c r="G189">
         <v>0</v>
       </c>
-      <c r="K189" s="9">
+      <c r="K189">
         <v>5</v>
       </c>
       <c r="M189">
         <v>15925813</v>
       </c>
-      <c r="N189" s="4" t="s">
+      <c r="N189" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O189" t="s">
@@ -15334,13 +15214,13 @@
       <c r="G190">
         <v>0</v>
       </c>
-      <c r="K190" s="9">
+      <c r="K190">
         <v>2</v>
       </c>
       <c r="M190">
         <v>15925828</v>
       </c>
-      <c r="N190" s="4" t="s">
+      <c r="N190" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O190" t="s">
@@ -15381,7 +15261,7 @@
       <c r="M191">
         <v>15925830</v>
       </c>
-      <c r="N191" s="4" t="s">
+      <c r="N191" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O191" t="s">
@@ -15419,7 +15299,7 @@
       <c r="M192">
         <v>15925851</v>
       </c>
-      <c r="N192" s="4" t="s">
+      <c r="N192" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P192" t="s">
@@ -15457,16 +15337,16 @@
       <c r="G193">
         <v>0</v>
       </c>
-      <c r="H193" s="4" t="s">
+      <c r="H193" s="3" t="s">
         <v>1924</v>
       </c>
-      <c r="K193" s="9">
+      <c r="K193">
         <v>2</v>
       </c>
       <c r="M193">
         <v>15925852</v>
       </c>
-      <c r="N193" s="4" t="s">
+      <c r="N193" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O193" t="s">
@@ -15504,13 +15384,13 @@
       <c r="G194">
         <v>0</v>
       </c>
-      <c r="K194" s="9">
+      <c r="K194">
         <v>2</v>
       </c>
       <c r="M194">
         <v>15925861</v>
       </c>
-      <c r="N194" s="4" t="s">
+      <c r="N194" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O194" t="s">
@@ -15551,7 +15431,7 @@
       <c r="M195">
         <v>15925866</v>
       </c>
-      <c r="N195" s="4" t="s">
+      <c r="N195" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O195" t="s">
@@ -15592,16 +15472,16 @@
       <c r="G196">
         <v>0</v>
       </c>
-      <c r="H196" s="4" t="s">
+      <c r="H196" s="3" t="s">
         <v>1925</v>
       </c>
-      <c r="K196" s="9">
+      <c r="K196">
         <v>2</v>
       </c>
       <c r="M196">
         <v>15925875</v>
       </c>
-      <c r="N196" s="4" t="s">
+      <c r="N196" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O196" t="s">
@@ -15630,25 +15510,22 @@
       <c r="D197" t="s">
         <v>849</v>
       </c>
-      <c r="E197" t="s">
-        <v>850</v>
-      </c>
       <c r="F197" t="s">
         <v>850</v>
       </c>
       <c r="G197">
         <v>0</v>
       </c>
-      <c r="H197" s="4" t="s">
+      <c r="H197" s="3" t="s">
         <v>1926</v>
       </c>
-      <c r="K197" s="9">
+      <c r="K197">
         <v>2</v>
       </c>
       <c r="M197">
         <v>15925876</v>
       </c>
-      <c r="N197" s="4" t="s">
+      <c r="N197" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O197" t="s">
@@ -15689,13 +15566,13 @@
       <c r="G198">
         <v>0</v>
       </c>
-      <c r="K198" s="9">
+      <c r="K198">
         <v>2</v>
       </c>
       <c r="M198">
         <v>15925889</v>
       </c>
-      <c r="N198" s="4" t="s">
+      <c r="N198" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O198" t="s">
@@ -15733,7 +15610,7 @@
       <c r="G199">
         <v>0</v>
       </c>
-      <c r="H199" s="4" t="s">
+      <c r="H199" s="3" t="s">
         <v>1927</v>
       </c>
       <c r="I199" t="s">
@@ -15742,7 +15619,7 @@
       <c r="M199">
         <v>15925891</v>
       </c>
-      <c r="N199" s="4" t="s">
+      <c r="N199" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P199" t="s">
@@ -15777,7 +15654,7 @@
       <c r="M200">
         <v>15925901</v>
       </c>
-      <c r="N200" s="4" t="s">
+      <c r="N200" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O200" t="s">
@@ -15806,22 +15683,19 @@
       <c r="D201" t="s">
         <v>865</v>
       </c>
-      <c r="E201" t="s">
-        <v>866</v>
-      </c>
       <c r="F201" t="s">
         <v>866</v>
       </c>
       <c r="G201">
         <v>0</v>
       </c>
-      <c r="K201" s="9">
+      <c r="K201">
         <v>2</v>
       </c>
       <c r="M201">
         <v>15925902</v>
       </c>
-      <c r="N201" s="4" t="s">
+      <c r="N201" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O201" t="s">
@@ -15868,7 +15742,7 @@
       <c r="M202">
         <v>15925908</v>
       </c>
-      <c r="N202" s="4" t="s">
+      <c r="N202" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O202" t="s">
@@ -15915,7 +15789,7 @@
       <c r="M203">
         <v>15925920</v>
       </c>
-      <c r="N203" s="4" t="s">
+      <c r="N203" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P203" t="s">
@@ -15953,16 +15827,16 @@
       <c r="G204">
         <v>0</v>
       </c>
-      <c r="H204" s="4" t="s">
+      <c r="H204" s="3" t="s">
         <v>1928</v>
       </c>
-      <c r="K204" s="9">
+      <c r="K204">
         <v>5</v>
       </c>
       <c r="M204">
         <v>15925927</v>
       </c>
-      <c r="N204" s="4" t="s">
+      <c r="N204" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O204" t="s">
@@ -16000,13 +15874,13 @@
       <c r="G205">
         <v>0</v>
       </c>
-      <c r="L205" s="9" t="s">
+      <c r="L205" t="s">
         <v>884</v>
       </c>
       <c r="M205">
         <v>15925935</v>
       </c>
-      <c r="N205" s="4" t="s">
+      <c r="N205" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O205" t="s">
@@ -16047,7 +15921,7 @@
       <c r="M206">
         <v>15925950</v>
       </c>
-      <c r="N206" s="4" t="s">
+      <c r="N206" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P206" t="s">
@@ -16076,22 +15950,19 @@
       <c r="D207" t="s">
         <v>892</v>
       </c>
-      <c r="E207" t="s">
-        <v>893</v>
-      </c>
       <c r="F207" t="s">
         <v>893</v>
       </c>
       <c r="G207">
         <v>0</v>
       </c>
-      <c r="H207" s="4" t="s">
+      <c r="H207" s="3" t="s">
         <v>1929</v>
       </c>
       <c r="M207">
         <v>15925951</v>
       </c>
-      <c r="N207" s="4" t="s">
+      <c r="N207" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P207" t="s">
@@ -16129,7 +16000,7 @@
       <c r="M208">
         <v>15925960</v>
       </c>
-      <c r="N208" s="4" t="s">
+      <c r="N208" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O208" t="s">
@@ -16170,13 +16041,13 @@
       <c r="G209">
         <v>0</v>
       </c>
-      <c r="K209" s="9">
+      <c r="K209">
         <v>4</v>
       </c>
       <c r="M209">
         <v>15925962</v>
       </c>
-      <c r="N209" s="4" t="s">
+      <c r="N209" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O209" t="s">
@@ -16214,13 +16085,13 @@
       <c r="G210">
         <v>0</v>
       </c>
-      <c r="H210" s="4" t="s">
+      <c r="H210" s="3" t="s">
         <v>1930</v>
       </c>
       <c r="M210">
         <v>15925970</v>
       </c>
-      <c r="N210" s="4" t="s">
+      <c r="N210" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O210" t="s">
@@ -16252,28 +16123,25 @@
       <c r="D211" t="s">
         <v>909</v>
       </c>
-      <c r="E211" t="s">
-        <v>910</v>
-      </c>
       <c r="F211" t="s">
         <v>910</v>
       </c>
       <c r="G211">
         <v>0</v>
       </c>
-      <c r="H211" s="4" t="s">
+      <c r="H211" s="3" t="s">
         <v>1931</v>
       </c>
       <c r="J211" t="s">
         <v>1807</v>
       </c>
-      <c r="K211" s="9">
+      <c r="K211">
         <v>70</v>
       </c>
       <c r="M211">
         <v>15925977</v>
       </c>
-      <c r="N211" s="4" t="s">
+      <c r="N211" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P211" t="s">
@@ -16308,7 +16176,7 @@
       <c r="M212">
         <v>15925982</v>
       </c>
-      <c r="N212" s="4" t="s">
+      <c r="N212" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O212" t="s">
@@ -16346,13 +16214,13 @@
       <c r="G213">
         <v>0</v>
       </c>
-      <c r="K213" s="9">
+      <c r="K213">
         <v>5</v>
       </c>
       <c r="M213">
         <v>15925990</v>
       </c>
-      <c r="N213" s="4" t="s">
+      <c r="N213" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O213" t="s">
@@ -16390,13 +16258,13 @@
       <c r="G214">
         <v>0</v>
       </c>
-      <c r="K214" s="9">
+      <c r="K214">
         <v>2</v>
       </c>
       <c r="M214">
         <v>15925999</v>
       </c>
-      <c r="N214" s="4" t="s">
+      <c r="N214" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O214" t="s">
@@ -16425,9 +16293,6 @@
       <c r="D215" t="s">
         <v>927</v>
       </c>
-      <c r="E215" t="s">
-        <v>928</v>
-      </c>
       <c r="F215" t="s">
         <v>928</v>
       </c>
@@ -16443,7 +16308,7 @@
       <c r="M215">
         <v>15926014</v>
       </c>
-      <c r="N215" s="4" t="s">
+      <c r="N215" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O215" t="s">
@@ -16475,9 +16340,6 @@
       <c r="D216" t="s">
         <v>931</v>
       </c>
-      <c r="E216" t="s">
-        <v>932</v>
-      </c>
       <c r="F216" t="s">
         <v>932</v>
       </c>
@@ -16487,7 +16349,7 @@
       <c r="M216">
         <v>15926024</v>
       </c>
-      <c r="N216" s="4" t="s">
+      <c r="N216" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O216" t="s">
@@ -16528,13 +16390,13 @@
       <c r="G217">
         <v>0</v>
       </c>
-      <c r="K217" s="9">
+      <c r="K217">
         <v>21</v>
       </c>
       <c r="M217">
         <v>15926036</v>
       </c>
-      <c r="N217" s="4" t="s">
+      <c r="N217" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O217" t="s">
@@ -16578,7 +16440,7 @@
       <c r="M218">
         <v>15926063</v>
       </c>
-      <c r="N218" s="4" t="s">
+      <c r="N218" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P218" t="s">
@@ -16619,13 +16481,13 @@
       <c r="J219" t="s">
         <v>1810</v>
       </c>
-      <c r="K219" s="9">
+      <c r="K219">
         <v>21</v>
       </c>
       <c r="M219">
         <v>15926069</v>
       </c>
-      <c r="N219" s="4" t="s">
+      <c r="N219" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P219" t="s">
@@ -16654,22 +16516,19 @@
       <c r="D220" t="s">
         <v>949</v>
       </c>
-      <c r="E220" t="s">
-        <v>950</v>
-      </c>
       <c r="F220" t="s">
         <v>950</v>
       </c>
       <c r="G220">
         <v>0</v>
       </c>
-      <c r="K220" s="9">
+      <c r="K220">
         <v>2</v>
       </c>
       <c r="M220">
         <v>15926073</v>
       </c>
-      <c r="N220" s="4" t="s">
+      <c r="N220" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O220" t="s">
@@ -16713,7 +16572,7 @@
       <c r="M221">
         <v>15926079</v>
       </c>
-      <c r="N221" s="4" t="s">
+      <c r="N221" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P221" t="s">
@@ -16742,9 +16601,6 @@
       <c r="D222" t="s">
         <v>958</v>
       </c>
-      <c r="E222" t="s">
-        <v>959</v>
-      </c>
       <c r="F222" t="s">
         <v>959</v>
       </c>
@@ -16754,7 +16610,7 @@
       <c r="M222">
         <v>15926086</v>
       </c>
-      <c r="N222" s="4" t="s">
+      <c r="N222" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O222" t="s">
@@ -16786,25 +16642,22 @@
       <c r="D223" t="s">
         <v>962</v>
       </c>
-      <c r="E223" t="s">
-        <v>963</v>
-      </c>
       <c r="F223" t="s">
         <v>963</v>
       </c>
       <c r="G223">
         <v>0</v>
       </c>
-      <c r="H223" s="4" t="s">
+      <c r="H223" s="3" t="s">
         <v>1932</v>
       </c>
-      <c r="K223" s="9">
+      <c r="K223">
         <v>2</v>
       </c>
       <c r="M223">
         <v>15926088</v>
       </c>
-      <c r="N223" s="4" t="s">
+      <c r="N223" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P223" t="s">
@@ -16839,13 +16692,13 @@
       <c r="G224">
         <v>0</v>
       </c>
-      <c r="H224" s="4" t="s">
+      <c r="H224" s="3" t="s">
         <v>1933</v>
       </c>
       <c r="M224">
         <v>15926095</v>
       </c>
-      <c r="N224" s="4" t="s">
+      <c r="N224" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O224" t="s">
@@ -16889,7 +16742,7 @@
       <c r="M225">
         <v>15926107</v>
       </c>
-      <c r="N225" s="4" t="s">
+      <c r="N225" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P225" t="s">
@@ -16921,13 +16774,13 @@
       <c r="G226">
         <v>0</v>
       </c>
-      <c r="H226" s="4" t="s">
+      <c r="H226" s="3" t="s">
         <v>1934</v>
       </c>
       <c r="M226">
         <v>15926111</v>
       </c>
-      <c r="N226" s="4" t="s">
+      <c r="N226" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P226" t="s">
@@ -16962,13 +16815,13 @@
       <c r="G227">
         <v>0</v>
       </c>
-      <c r="H227" s="4" t="s">
+      <c r="H227" s="3" t="s">
         <v>1935</v>
       </c>
       <c r="M227">
         <v>15926114</v>
       </c>
-      <c r="N227" s="4" t="s">
+      <c r="N227" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O227" t="s">
@@ -17009,16 +16862,16 @@
       <c r="G228">
         <v>0</v>
       </c>
-      <c r="H228" s="4" t="s">
+      <c r="H228" s="3" t="s">
         <v>1936</v>
       </c>
-      <c r="K228" s="9">
+      <c r="K228">
         <v>2</v>
       </c>
       <c r="M228">
         <v>15926116</v>
       </c>
-      <c r="N228" s="4" t="s">
+      <c r="N228" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O228" t="s">
@@ -17059,7 +16912,7 @@
       <c r="M229">
         <v>15926126</v>
       </c>
-      <c r="N229" s="4" t="s">
+      <c r="N229" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O229" t="s">
@@ -17106,7 +16959,7 @@
       <c r="M230">
         <v>15926130</v>
       </c>
-      <c r="N230" s="4" t="s">
+      <c r="N230" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P230" t="s">
@@ -17135,25 +16988,22 @@
       <c r="D231" t="s">
         <v>994</v>
       </c>
-      <c r="E231" t="s">
-        <v>995</v>
-      </c>
       <c r="F231" t="s">
         <v>995</v>
       </c>
       <c r="G231">
         <v>0</v>
       </c>
-      <c r="H231" s="4" t="s">
+      <c r="H231" s="3" t="s">
         <v>1937</v>
       </c>
-      <c r="K231" s="9">
+      <c r="K231">
         <v>28</v>
       </c>
       <c r="M231">
         <v>15926150</v>
       </c>
-      <c r="N231" s="4" t="s">
+      <c r="N231" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O231" t="s">
@@ -17191,13 +17041,13 @@
       <c r="G232">
         <v>0</v>
       </c>
-      <c r="K232" s="9">
+      <c r="K232">
         <v>6</v>
       </c>
       <c r="M232">
         <v>15926156</v>
       </c>
-      <c r="N232" s="4" t="s">
+      <c r="N232" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P232" t="s">
@@ -17241,7 +17091,7 @@
       <c r="M233">
         <v>15926161</v>
       </c>
-      <c r="N233" s="4" t="s">
+      <c r="N233" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O233" t="s">
@@ -17282,13 +17132,13 @@
       <c r="G234">
         <v>0</v>
       </c>
-      <c r="K234" s="9">
+      <c r="K234">
         <v>13</v>
       </c>
       <c r="M234">
         <v>15926169</v>
       </c>
-      <c r="N234" s="4" t="s">
+      <c r="N234" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O234" t="s">
@@ -17317,22 +17167,19 @@
       <c r="D235" t="s">
         <v>1011</v>
       </c>
-      <c r="E235" t="s">
-        <v>1012</v>
-      </c>
       <c r="F235" t="s">
         <v>1012</v>
       </c>
       <c r="G235">
         <v>0</v>
       </c>
-      <c r="K235" s="9">
+      <c r="K235">
         <v>2</v>
       </c>
       <c r="M235">
         <v>15926175</v>
       </c>
-      <c r="N235" s="4" t="s">
+      <c r="N235" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O235" t="s">
@@ -17373,13 +17220,13 @@
       <c r="G236">
         <v>0</v>
       </c>
-      <c r="K236" s="9">
+      <c r="K236">
         <v>52</v>
       </c>
       <c r="M236">
         <v>15926181</v>
       </c>
-      <c r="N236" s="4" t="s">
+      <c r="N236" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O236" t="s">
@@ -17420,7 +17267,7 @@
       <c r="M237">
         <v>15926189</v>
       </c>
-      <c r="N237" s="4" t="s">
+      <c r="N237" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O237" t="s">
@@ -17449,9 +17296,6 @@
       <c r="D238" t="s">
         <v>1024</v>
       </c>
-      <c r="E238" t="s">
-        <v>1025</v>
-      </c>
       <c r="F238" t="s">
         <v>1025</v>
       </c>
@@ -17461,7 +17305,7 @@
       <c r="M238">
         <v>15926192</v>
       </c>
-      <c r="N238" s="4" t="s">
+      <c r="N238" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O238" t="s">
@@ -17493,9 +17337,6 @@
       <c r="D239" t="s">
         <v>1028</v>
       </c>
-      <c r="E239" t="s">
-        <v>1029</v>
-      </c>
       <c r="F239" t="s">
         <v>1029</v>
       </c>
@@ -17505,13 +17346,13 @@
       <c r="I239" t="s">
         <v>1749</v>
       </c>
-      <c r="K239" s="9">
+      <c r="K239">
         <v>4</v>
       </c>
       <c r="M239">
         <v>15926222</v>
       </c>
-      <c r="N239" s="4" t="s">
+      <c r="N239" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O239" t="s">
@@ -17552,16 +17393,16 @@
       <c r="G240">
         <v>0</v>
       </c>
-      <c r="H240" s="4" t="s">
+      <c r="H240" s="3" t="s">
         <v>1938</v>
       </c>
-      <c r="K240" s="9">
+      <c r="K240">
         <v>6</v>
       </c>
       <c r="M240">
         <v>15926230</v>
       </c>
-      <c r="N240" s="4" t="s">
+      <c r="N240" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O240" t="s">
@@ -17602,7 +17443,7 @@
       <c r="M241">
         <v>15926248</v>
       </c>
-      <c r="N241" s="4" t="s">
+      <c r="N241" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O241" t="s">
@@ -17640,7 +17481,7 @@
       <c r="M242">
         <v>15926260</v>
       </c>
-      <c r="N242" s="4" t="s">
+      <c r="N242" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O242" t="s">
@@ -17672,22 +17513,19 @@
       <c r="D243" t="s">
         <v>1045</v>
       </c>
-      <c r="E243" t="s">
-        <v>1046</v>
-      </c>
       <c r="F243" t="s">
         <v>1046</v>
       </c>
       <c r="G243">
         <v>0</v>
       </c>
-      <c r="K243" s="9">
+      <c r="K243">
         <v>7</v>
       </c>
       <c r="M243">
         <v>15926272</v>
       </c>
-      <c r="N243" s="4" t="s">
+      <c r="N243" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P243" t="s">
@@ -17722,13 +17560,13 @@
       <c r="G244">
         <v>0</v>
       </c>
-      <c r="H244" s="4" t="s">
+      <c r="H244" s="3" t="s">
         <v>1939</v>
       </c>
       <c r="M244">
         <v>15926311</v>
       </c>
-      <c r="N244" s="4" t="s">
+      <c r="N244" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O244" t="s">
@@ -17766,16 +17604,16 @@
       <c r="G245">
         <v>0</v>
       </c>
-      <c r="H245" s="4" t="s">
+      <c r="H245" s="3" t="s">
         <v>1940</v>
       </c>
-      <c r="K245" s="9">
+      <c r="K245">
         <v>2</v>
       </c>
       <c r="M245">
         <v>15926312</v>
       </c>
-      <c r="N245" s="4" t="s">
+      <c r="N245" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O245" t="s">
@@ -17804,9 +17642,6 @@
       <c r="D246" t="s">
         <v>1057</v>
       </c>
-      <c r="E246" t="s">
-        <v>1058</v>
-      </c>
       <c r="F246" t="s">
         <v>1058</v>
       </c>
@@ -17816,7 +17651,7 @@
       <c r="M246">
         <v>15926315</v>
       </c>
-      <c r="N246" s="4" t="s">
+      <c r="N246" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O246" t="s">
@@ -17851,13 +17686,13 @@
       <c r="G247">
         <v>0</v>
       </c>
-      <c r="H247" s="4" t="s">
+      <c r="H247" s="3" t="s">
         <v>1941</v>
       </c>
       <c r="M247">
         <v>15926331</v>
       </c>
-      <c r="N247" s="4" t="s">
+      <c r="N247" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O247" t="s">
@@ -17895,13 +17730,13 @@
       <c r="G248">
         <v>0</v>
       </c>
-      <c r="K248" s="9">
+      <c r="K248">
         <v>2</v>
       </c>
       <c r="M248">
         <v>15926337</v>
       </c>
-      <c r="N248" s="4" t="s">
+      <c r="N248" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P248" t="s">
@@ -17948,7 +17783,7 @@
       <c r="M249">
         <v>15926354</v>
       </c>
-      <c r="N249" s="4" t="s">
+      <c r="N249" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O249" t="s">
@@ -17992,7 +17827,7 @@
       <c r="M250">
         <v>15926357</v>
       </c>
-      <c r="N250" s="4" t="s">
+      <c r="N250" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P250" t="s">
@@ -18030,7 +17865,7 @@
       <c r="M251">
         <v>15926376</v>
       </c>
-      <c r="N251" s="4" t="s">
+      <c r="N251" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P251" t="s">
@@ -18065,7 +17900,7 @@
       <c r="M252">
         <v>15926388</v>
       </c>
-      <c r="N252" s="4" t="s">
+      <c r="N252" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O252" t="s">
@@ -18112,7 +17947,7 @@
       <c r="M253">
         <v>15926395</v>
       </c>
-      <c r="N253" s="4" t="s">
+      <c r="N253" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O253" t="s">
@@ -18156,13 +17991,13 @@
       <c r="J254" t="s">
         <v>1814</v>
       </c>
-      <c r="K254" s="9">
+      <c r="K254">
         <v>2</v>
       </c>
       <c r="M254">
         <v>15926410</v>
       </c>
-      <c r="N254" s="4" t="s">
+      <c r="N254" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P254" t="s">
@@ -18200,16 +18035,16 @@
       <c r="G255">
         <v>0</v>
       </c>
-      <c r="H255" s="4" t="s">
+      <c r="H255" s="3" t="s">
         <v>1942</v>
       </c>
-      <c r="K255" s="9">
+      <c r="K255">
         <v>24</v>
       </c>
       <c r="M255">
         <v>15926415</v>
       </c>
-      <c r="N255" s="4" t="s">
+      <c r="N255" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P255" t="s">
@@ -18235,22 +18070,19 @@
       <c r="D256" t="s">
         <v>1099</v>
       </c>
-      <c r="E256" t="s">
-        <v>1100</v>
-      </c>
       <c r="F256" t="s">
         <v>1100</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
-      <c r="K256" s="9">
+      <c r="K256">
         <v>2</v>
       </c>
       <c r="M256">
         <v>15926432</v>
       </c>
-      <c r="N256" s="4" t="s">
+      <c r="N256" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O256" t="s">
@@ -18291,7 +18123,7 @@
       <c r="M257">
         <v>15926442</v>
       </c>
-      <c r="N257" s="4" t="s">
+      <c r="N257" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O257" t="s">
@@ -18332,7 +18164,7 @@
       <c r="M258">
         <v>15926443</v>
       </c>
-      <c r="N258" s="4" t="s">
+      <c r="N258" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O258" t="s">
@@ -18373,7 +18205,7 @@
       <c r="M259">
         <v>15926453</v>
       </c>
-      <c r="N259" s="4" t="s">
+      <c r="N259" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P259" t="s">
@@ -18408,13 +18240,13 @@
       <c r="G260">
         <v>0</v>
       </c>
-      <c r="H260" s="4" t="s">
+      <c r="H260" s="3" t="s">
         <v>1943</v>
       </c>
       <c r="M260">
         <v>15926468</v>
       </c>
-      <c r="N260" s="4" t="s">
+      <c r="N260" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O260" t="s">
@@ -18452,7 +18284,7 @@
       <c r="G261">
         <v>0</v>
       </c>
-      <c r="H261" s="4" t="s">
+      <c r="H261" s="3" t="s">
         <v>1944</v>
       </c>
       <c r="I261" t="s">
@@ -18464,7 +18296,7 @@
       <c r="M261">
         <v>15926476</v>
       </c>
-      <c r="N261" s="4" t="s">
+      <c r="N261" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O261" t="s">
@@ -18496,9 +18328,6 @@
       <c r="D262" t="s">
         <v>1123</v>
       </c>
-      <c r="E262" t="s">
-        <v>1124</v>
-      </c>
       <c r="F262" t="s">
         <v>1124</v>
       </c>
@@ -18511,7 +18340,7 @@
       <c r="M262">
         <v>15926478</v>
       </c>
-      <c r="N262" s="4" t="s">
+      <c r="N262" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P262" t="s">
@@ -18537,9 +18366,6 @@
       <c r="D263" t="s">
         <v>1127</v>
       </c>
-      <c r="E263" t="s">
-        <v>1128</v>
-      </c>
       <c r="F263" t="s">
         <v>1128</v>
       </c>
@@ -18549,13 +18375,13 @@
       <c r="J263" t="s">
         <v>1816</v>
       </c>
-      <c r="K263" s="9">
+      <c r="K263">
         <v>36</v>
       </c>
       <c r="M263">
         <v>15926479</v>
       </c>
-      <c r="N263" s="4" t="s">
+      <c r="N263" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O263" t="s">
@@ -18596,7 +18422,7 @@
       <c r="M264">
         <v>15926488</v>
       </c>
-      <c r="N264" s="4" t="s">
+      <c r="N264" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P264" t="s">
@@ -18640,7 +18466,7 @@
       <c r="M265">
         <v>15926490</v>
       </c>
-      <c r="N265" s="4" t="s">
+      <c r="N265" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P265" t="s">
@@ -18669,25 +18495,22 @@
       <c r="D266" t="s">
         <v>1138</v>
       </c>
-      <c r="E266" t="s">
-        <v>1139</v>
-      </c>
       <c r="F266" t="s">
         <v>1139</v>
       </c>
       <c r="G266">
         <v>0</v>
       </c>
-      <c r="H266" s="4" t="s">
+      <c r="H266" s="3" t="s">
         <v>1945</v>
       </c>
-      <c r="K266" s="9">
+      <c r="K266">
         <v>6</v>
       </c>
       <c r="M266">
         <v>15926501</v>
       </c>
-      <c r="N266" s="4" t="s">
+      <c r="N266" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O266" t="s">
@@ -18731,7 +18554,7 @@
       <c r="M267">
         <v>15926504</v>
       </c>
-      <c r="N267" s="4" t="s">
+      <c r="N267" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P267" t="s">
@@ -18760,22 +18583,19 @@
       <c r="D268" t="s">
         <v>1147</v>
       </c>
-      <c r="E268" t="s">
-        <v>1148</v>
-      </c>
       <c r="F268" t="s">
         <v>1148</v>
       </c>
       <c r="G268">
         <v>0</v>
       </c>
-      <c r="H268" s="4" t="s">
+      <c r="H268" s="3" t="s">
         <v>1946</v>
       </c>
       <c r="M268">
         <v>15926506</v>
       </c>
-      <c r="N268" s="4" t="s">
+      <c r="N268" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P268" t="s">
@@ -18801,25 +18621,22 @@
       <c r="D269" t="s">
         <v>1151</v>
       </c>
-      <c r="E269" t="s">
-        <v>1152</v>
-      </c>
       <c r="F269" t="s">
         <v>1152</v>
       </c>
       <c r="G269">
         <v>0</v>
       </c>
-      <c r="H269" s="4" t="s">
+      <c r="H269" s="3" t="s">
         <v>1947</v>
       </c>
-      <c r="K269" s="9">
+      <c r="K269">
         <v>39</v>
       </c>
       <c r="M269">
         <v>15926508</v>
       </c>
-      <c r="N269" s="4" t="s">
+      <c r="N269" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O269" t="s">
@@ -18860,7 +18677,7 @@
       <c r="M270">
         <v>15926510</v>
       </c>
-      <c r="N270" s="4" t="s">
+      <c r="N270" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P270" t="s">
@@ -18895,13 +18712,13 @@
       <c r="G271">
         <v>0</v>
       </c>
-      <c r="K271" s="9">
+      <c r="K271">
         <v>6</v>
       </c>
       <c r="M271">
         <v>15926532</v>
       </c>
-      <c r="N271" s="4" t="s">
+      <c r="N271" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O271" t="s">
@@ -18933,28 +18750,25 @@
       <c r="D272" t="s">
         <v>1162</v>
       </c>
-      <c r="E272" t="s">
-        <v>1163</v>
-      </c>
       <c r="F272" t="s">
         <v>1163</v>
       </c>
       <c r="G272">
         <v>0</v>
       </c>
-      <c r="H272" s="4" t="s">
+      <c r="H272" s="3" t="s">
         <v>1948</v>
       </c>
       <c r="I272" t="s">
         <v>1754</v>
       </c>
-      <c r="K272" s="9">
+      <c r="K272">
         <v>2</v>
       </c>
       <c r="M272">
         <v>15926555</v>
       </c>
-      <c r="N272" s="4" t="s">
+      <c r="N272" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O272" t="s">
@@ -18995,19 +18809,19 @@
       <c r="G273">
         <v>0</v>
       </c>
-      <c r="H273" s="4" t="s">
+      <c r="H273" s="3" t="s">
         <v>1949</v>
       </c>
       <c r="I273" t="s">
         <v>1755</v>
       </c>
-      <c r="K273" s="9">
+      <c r="K273">
         <v>2</v>
       </c>
       <c r="M273">
         <v>15926560</v>
       </c>
-      <c r="N273" s="4" t="s">
+      <c r="N273" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O273" t="s">
@@ -19051,7 +18865,7 @@
       <c r="M274">
         <v>15926563</v>
       </c>
-      <c r="N274" s="4" t="s">
+      <c r="N274" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O274" t="s">
@@ -19080,22 +18894,19 @@
       <c r="D275" t="s">
         <v>1176</v>
       </c>
-      <c r="E275" t="s">
-        <v>1177</v>
-      </c>
       <c r="F275" t="s">
         <v>1177</v>
       </c>
       <c r="G275">
         <v>0</v>
       </c>
-      <c r="H275" s="4" t="s">
+      <c r="H275" s="3" t="s">
         <v>1950</v>
       </c>
       <c r="M275">
         <v>15926570</v>
       </c>
-      <c r="N275" s="4" t="s">
+      <c r="N275" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O275" t="s">
@@ -19127,19 +18938,19 @@
       <c r="D276" t="s">
         <v>1180</v>
       </c>
-      <c r="E276" t="s">
+      <c r="F276" t="s">
         <v>1181</v>
       </c>
       <c r="G276">
         <v>0</v>
       </c>
-      <c r="K276" s="9">
+      <c r="K276">
         <v>15</v>
       </c>
       <c r="M276">
         <v>15926571</v>
       </c>
-      <c r="N276" s="4" t="s">
+      <c r="N276" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O276" t="s">
@@ -19180,13 +18991,13 @@
       <c r="G277">
         <v>0</v>
       </c>
-      <c r="K277" s="9">
+      <c r="K277">
         <v>2</v>
       </c>
       <c r="M277">
         <v>15926581</v>
       </c>
-      <c r="N277" s="4" t="s">
+      <c r="N277" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P277" t="s">
@@ -19221,7 +19032,7 @@
       <c r="G278">
         <v>0</v>
       </c>
-      <c r="H278" s="4" t="s">
+      <c r="H278" s="3" t="s">
         <v>1951</v>
       </c>
       <c r="I278" t="s">
@@ -19230,13 +19041,13 @@
       <c r="J278" t="s">
         <v>1818</v>
       </c>
-      <c r="L278" s="9" t="s">
+      <c r="L278" t="s">
         <v>1190</v>
       </c>
       <c r="M278">
         <v>15926587</v>
       </c>
-      <c r="N278" s="4" t="s">
+      <c r="N278" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O278" t="s">
@@ -19274,13 +19085,13 @@
       <c r="G279">
         <v>0</v>
       </c>
-      <c r="K279" s="9">
+      <c r="K279">
         <v>7</v>
       </c>
       <c r="M279">
         <v>15926593</v>
       </c>
-      <c r="N279" s="4" t="s">
+      <c r="N279" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O279" t="s">
@@ -19321,7 +19132,7 @@
       <c r="M280">
         <v>15926599</v>
       </c>
-      <c r="N280" s="4" t="s">
+      <c r="N280" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P280" t="s">
@@ -19359,7 +19170,7 @@
       <c r="M281">
         <v>15926600</v>
       </c>
-      <c r="N281" s="4" t="s">
+      <c r="N281" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P281" t="s">
@@ -19388,13 +19199,13 @@
       <c r="G282">
         <v>0</v>
       </c>
-      <c r="H282" s="4" t="s">
+      <c r="H282" s="3" t="s">
         <v>1952</v>
       </c>
       <c r="M282">
         <v>15926610</v>
       </c>
-      <c r="N282" s="4" t="s">
+      <c r="N282" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O282" t="s">
@@ -19435,7 +19246,7 @@
       <c r="M283">
         <v>15926611</v>
       </c>
-      <c r="N283" s="4" t="s">
+      <c r="N283" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O283" t="s">
@@ -19482,13 +19293,13 @@
       <c r="J284" t="s">
         <v>1819</v>
       </c>
-      <c r="K284" s="9">
+      <c r="K284">
         <v>2</v>
       </c>
       <c r="M284">
         <v>15926625</v>
       </c>
-      <c r="N284" s="4" t="s">
+      <c r="N284" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O284" t="s">
@@ -19526,13 +19337,13 @@
       <c r="G285">
         <v>0</v>
       </c>
-      <c r="K285" s="9">
+      <c r="K285">
         <v>36</v>
       </c>
       <c r="M285">
         <v>15926636</v>
       </c>
-      <c r="N285" s="4" t="s">
+      <c r="N285" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P285" t="s">
@@ -19570,7 +19381,7 @@
       <c r="M286">
         <v>15926638</v>
       </c>
-      <c r="N286" s="4" t="s">
+      <c r="N286" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P286" t="s">
@@ -19599,9 +19410,6 @@
       <c r="D287" t="s">
         <v>1224</v>
       </c>
-      <c r="E287" t="s">
-        <v>1225</v>
-      </c>
       <c r="F287" t="s">
         <v>1225</v>
       </c>
@@ -19611,13 +19419,13 @@
       <c r="J287" t="s">
         <v>1820</v>
       </c>
-      <c r="K287" s="9">
+      <c r="K287">
         <v>5</v>
       </c>
       <c r="M287">
         <v>15926657</v>
       </c>
-      <c r="N287" s="4" t="s">
+      <c r="N287" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O287" t="s">
@@ -19649,16 +19457,13 @@
       <c r="D288" t="s">
         <v>1228</v>
       </c>
-      <c r="E288" t="s">
-        <v>1229</v>
-      </c>
       <c r="F288" t="s">
         <v>1229</v>
       </c>
       <c r="G288">
         <v>0</v>
       </c>
-      <c r="H288" s="4" t="s">
+      <c r="H288" s="3" t="s">
         <v>1953</v>
       </c>
       <c r="J288" t="s">
@@ -19667,7 +19472,7 @@
       <c r="M288">
         <v>15926659</v>
       </c>
-      <c r="N288" s="4" t="s">
+      <c r="N288" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O288" t="s">
@@ -19708,13 +19513,13 @@
       <c r="G289">
         <v>0</v>
       </c>
-      <c r="K289" s="9">
+      <c r="K289">
         <v>2</v>
       </c>
       <c r="M289">
         <v>15926661</v>
       </c>
-      <c r="N289" s="4" t="s">
+      <c r="N289" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O289" t="s">
@@ -19755,13 +19560,13 @@
       <c r="G290">
         <v>0</v>
       </c>
-      <c r="H290" s="4" t="s">
+      <c r="H290" s="3" t="s">
         <v>1954</v>
       </c>
       <c r="M290">
         <v>15926667</v>
       </c>
-      <c r="N290" s="4" t="s">
+      <c r="N290" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O290" t="s">
@@ -19802,7 +19607,7 @@
       <c r="M291">
         <v>15926669</v>
       </c>
-      <c r="N291" s="4" t="s">
+      <c r="N291" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P291" t="s">
@@ -19837,13 +19642,13 @@
       <c r="G292">
         <v>0</v>
       </c>
-      <c r="K292" s="9">
+      <c r="K292">
         <v>13</v>
       </c>
       <c r="M292">
         <v>15926670</v>
       </c>
-      <c r="N292" s="4" t="s">
+      <c r="N292" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P292" t="s">
@@ -19878,13 +19683,13 @@
       <c r="G293">
         <v>0</v>
       </c>
-      <c r="H293" s="4" t="s">
+      <c r="H293" s="3" t="s">
         <v>1955</v>
       </c>
       <c r="M293">
         <v>15926671</v>
       </c>
-      <c r="N293" s="4" t="s">
+      <c r="N293" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O293" t="s">
@@ -19919,7 +19724,7 @@
       <c r="G294">
         <v>0</v>
       </c>
-      <c r="H294" s="4" t="s">
+      <c r="H294" s="3" t="s">
         <v>1956</v>
       </c>
       <c r="J294" t="s">
@@ -19928,7 +19733,7 @@
       <c r="M294">
         <v>15926672</v>
       </c>
-      <c r="N294" s="4" t="s">
+      <c r="N294" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P294" t="s">
@@ -19966,7 +19771,7 @@
       <c r="G295">
         <v>0</v>
       </c>
-      <c r="H295" s="4" t="s">
+      <c r="H295" s="3" t="s">
         <v>1957</v>
       </c>
       <c r="I295" t="s">
@@ -19975,7 +19780,7 @@
       <c r="M295">
         <v>15926688</v>
       </c>
-      <c r="N295" s="4" t="s">
+      <c r="N295" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P295" t="s">
@@ -20013,16 +19818,16 @@
       <c r="G296">
         <v>0</v>
       </c>
-      <c r="H296" s="4" t="s">
+      <c r="H296" s="3" t="s">
         <v>1958</v>
       </c>
-      <c r="K296" s="9">
+      <c r="K296">
         <v>6</v>
       </c>
       <c r="M296">
         <v>15926716</v>
       </c>
-      <c r="N296" s="4" t="s">
+      <c r="N296" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O296" t="s">
@@ -20060,13 +19865,13 @@
       <c r="G297">
         <v>0</v>
       </c>
-      <c r="H297" s="4" t="s">
+      <c r="H297" s="3" t="s">
         <v>1959</v>
       </c>
       <c r="M297">
         <v>15926720</v>
       </c>
-      <c r="N297" s="4" t="s">
+      <c r="N297" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O297" t="s">
@@ -20107,13 +19912,13 @@
       <c r="G298">
         <v>0</v>
       </c>
-      <c r="K298" s="9">
+      <c r="K298">
         <v>4</v>
       </c>
       <c r="M298">
         <v>15926722</v>
       </c>
-      <c r="N298" s="4" t="s">
+      <c r="N298" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P298" t="s">
@@ -20142,22 +19947,19 @@
       <c r="D299" t="s">
         <v>1277</v>
       </c>
-      <c r="E299" t="s">
-        <v>1278</v>
-      </c>
       <c r="F299" t="s">
         <v>1278</v>
       </c>
       <c r="G299">
         <v>0</v>
       </c>
-      <c r="K299" s="9">
+      <c r="K299">
         <v>4</v>
       </c>
       <c r="M299">
         <v>15926729</v>
       </c>
-      <c r="N299" s="4" t="s">
+      <c r="N299" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O299" t="s">
@@ -20198,7 +20000,7 @@
       <c r="M300">
         <v>15926734</v>
       </c>
-      <c r="N300" s="4" t="s">
+      <c r="N300" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O300" t="s">
@@ -20239,19 +20041,19 @@
       <c r="G301">
         <v>0</v>
       </c>
-      <c r="H301" s="4" t="s">
+      <c r="H301" s="3" t="s">
         <v>1960</v>
       </c>
       <c r="J301" t="s">
         <v>1823</v>
       </c>
-      <c r="K301" s="9">
+      <c r="K301">
         <v>2</v>
       </c>
       <c r="M301">
         <v>15926742</v>
       </c>
-      <c r="N301" s="4" t="s">
+      <c r="N301" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O301" t="s">
@@ -20292,13 +20094,13 @@
       <c r="G302">
         <v>0</v>
       </c>
-      <c r="K302" s="9">
+      <c r="K302">
         <v>70</v>
       </c>
       <c r="M302">
         <v>15926754</v>
       </c>
-      <c r="N302" s="4" t="s">
+      <c r="N302" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O302" t="s">
@@ -20336,13 +20138,13 @@
       <c r="G303">
         <v>0</v>
       </c>
-      <c r="L303" s="9" t="s">
+      <c r="L303" t="s">
         <v>2000</v>
       </c>
       <c r="M303">
         <v>15926758</v>
       </c>
-      <c r="N303" s="4" t="s">
+      <c r="N303" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P303" t="s">
@@ -20368,22 +20170,19 @@
       <c r="D304" t="s">
         <v>1298</v>
       </c>
-      <c r="E304" t="s">
-        <v>1299</v>
-      </c>
       <c r="F304" t="s">
         <v>1299</v>
       </c>
       <c r="G304">
         <v>0</v>
       </c>
-      <c r="K304" s="9">
+      <c r="K304">
         <v>52</v>
       </c>
       <c r="M304">
         <v>15926764</v>
       </c>
-      <c r="N304" s="4" t="s">
+      <c r="N304" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P304" t="s">
@@ -20418,7 +20217,7 @@
       <c r="M305">
         <v>15926766</v>
       </c>
-      <c r="N305" s="4" t="s">
+      <c r="N305" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O305" t="s">
@@ -20456,13 +20255,13 @@
       <c r="J306" t="s">
         <v>1824</v>
       </c>
-      <c r="K306" s="9">
+      <c r="K306">
         <v>2</v>
       </c>
       <c r="M306">
         <v>15926811</v>
       </c>
-      <c r="N306" s="4" t="s">
+      <c r="N306" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O306" t="s">
@@ -20503,16 +20302,16 @@
       <c r="G307">
         <v>0</v>
       </c>
-      <c r="H307" s="4" t="s">
+      <c r="H307" s="3" t="s">
         <v>1961</v>
       </c>
-      <c r="K307" s="9">
+      <c r="K307">
         <v>21</v>
       </c>
       <c r="M307">
         <v>15926821</v>
       </c>
-      <c r="N307" s="4" t="s">
+      <c r="N307" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O307" t="s">
@@ -20550,13 +20349,13 @@
       <c r="G308">
         <v>0</v>
       </c>
-      <c r="H308" s="4" t="s">
+      <c r="H308" s="3" t="s">
         <v>1962</v>
       </c>
       <c r="M308">
         <v>15926834</v>
       </c>
-      <c r="N308" s="4" t="s">
+      <c r="N308" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O308" t="s">
@@ -20597,13 +20396,13 @@
       <c r="G309">
         <v>0</v>
       </c>
-      <c r="H309" s="4" t="s">
+      <c r="H309" s="3" t="s">
         <v>1963</v>
       </c>
       <c r="M309">
         <v>15926835</v>
       </c>
-      <c r="N309" s="4" t="s">
+      <c r="N309" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P309" t="s">
@@ -20641,7 +20440,7 @@
       <c r="M310">
         <v>15926837</v>
       </c>
-      <c r="N310" s="4" t="s">
+      <c r="N310" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P310" t="s">
@@ -20676,7 +20475,7 @@
       <c r="G311">
         <v>0</v>
       </c>
-      <c r="H311" s="4" t="s">
+      <c r="H311" s="3" t="s">
         <v>1964</v>
       </c>
       <c r="I311" t="s">
@@ -20685,13 +20484,13 @@
       <c r="J311" t="s">
         <v>1825</v>
       </c>
-      <c r="K311" s="9">
+      <c r="K311">
         <v>39</v>
       </c>
       <c r="M311">
         <v>15926838</v>
       </c>
-      <c r="N311" s="4" t="s">
+      <c r="N311" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P311" t="s">
@@ -20726,13 +20525,13 @@
       <c r="G312">
         <v>0</v>
       </c>
-      <c r="K312" s="9">
+      <c r="K312">
         <v>2</v>
       </c>
       <c r="M312">
         <v>15926842</v>
       </c>
-      <c r="N312" s="4" t="s">
+      <c r="N312" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O312" t="s">
@@ -20773,13 +20572,13 @@
       <c r="J313" t="s">
         <v>1826</v>
       </c>
-      <c r="L313" s="9" t="s">
+      <c r="L313" t="s">
         <v>1337</v>
       </c>
       <c r="M313">
         <v>15926846</v>
       </c>
-      <c r="N313" s="4" t="s">
+      <c r="N313" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P313" t="s">
@@ -20808,25 +20607,22 @@
       <c r="D314" t="s">
         <v>1340</v>
       </c>
-      <c r="E314" t="s">
-        <v>1341</v>
-      </c>
       <c r="F314" t="s">
         <v>1341</v>
       </c>
       <c r="G314">
         <v>0</v>
       </c>
-      <c r="H314" s="4" t="s">
+      <c r="H314" s="3" t="s">
         <v>1965</v>
       </c>
-      <c r="K314" s="9">
+      <c r="K314">
         <v>2</v>
       </c>
       <c r="M314">
         <v>15926852</v>
       </c>
-      <c r="N314" s="4" t="s">
+      <c r="N314" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O314" t="s">
@@ -20867,7 +20663,7 @@
       <c r="M315">
         <v>15926867</v>
       </c>
-      <c r="N315" s="4" t="s">
+      <c r="N315" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O315" t="s">
@@ -20908,7 +20704,7 @@
       <c r="M316">
         <v>15926870</v>
       </c>
-      <c r="N316" s="4" t="s">
+      <c r="N316" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P316" t="s">
@@ -20934,25 +20730,22 @@
       <c r="D317" t="s">
         <v>1350</v>
       </c>
-      <c r="E317" t="s">
-        <v>1351</v>
-      </c>
       <c r="F317" t="s">
         <v>1351</v>
       </c>
       <c r="G317">
         <v>0</v>
       </c>
-      <c r="H317" s="4" t="s">
+      <c r="H317" s="3" t="s">
         <v>1966</v>
       </c>
-      <c r="K317" s="9">
+      <c r="K317">
         <v>36</v>
       </c>
       <c r="M317">
         <v>15926872</v>
       </c>
-      <c r="N317" s="4" t="s">
+      <c r="N317" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P317" t="s">
@@ -20990,7 +20783,7 @@
       <c r="M318">
         <v>15926883</v>
       </c>
-      <c r="N318" s="4" t="s">
+      <c r="N318" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O318" t="s">
@@ -21031,13 +20824,13 @@
       <c r="G319">
         <v>0</v>
       </c>
-      <c r="K319" s="9">
+      <c r="K319">
         <v>26</v>
       </c>
       <c r="M319">
         <v>15926885</v>
       </c>
-      <c r="N319" s="4" t="s">
+      <c r="N319" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O319" t="s">
@@ -21066,9 +20859,6 @@
       <c r="D320" t="s">
         <v>1363</v>
       </c>
-      <c r="E320" t="s">
-        <v>1364</v>
-      </c>
       <c r="F320" t="s">
         <v>1364</v>
       </c>
@@ -21078,7 +20868,7 @@
       <c r="M320">
         <v>15926888</v>
       </c>
-      <c r="N320" s="4" t="s">
+      <c r="N320" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O320" t="s">
@@ -21122,7 +20912,7 @@
       <c r="M321">
         <v>15926898</v>
       </c>
-      <c r="N321" s="4" t="s">
+      <c r="N321" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P321" t="s">
@@ -21151,9 +20941,6 @@
       <c r="D322" t="s">
         <v>1371</v>
       </c>
-      <c r="E322" t="s">
-        <v>1372</v>
-      </c>
       <c r="F322" t="s">
         <v>1372</v>
       </c>
@@ -21163,13 +20950,13 @@
       <c r="J322" t="s">
         <v>1827</v>
       </c>
-      <c r="K322" s="9">
+      <c r="K322">
         <v>21</v>
       </c>
       <c r="M322">
         <v>15926902</v>
       </c>
-      <c r="N322" s="4" t="s">
+      <c r="N322" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O322" t="s">
@@ -21210,7 +20997,7 @@
       <c r="M323">
         <v>15926904</v>
       </c>
-      <c r="N323" s="4" t="s">
+      <c r="N323" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O323" t="s">
@@ -21239,22 +21026,19 @@
       <c r="D324" t="s">
         <v>1377</v>
       </c>
-      <c r="E324" t="s">
-        <v>1378</v>
-      </c>
       <c r="F324" t="s">
         <v>1378</v>
       </c>
       <c r="G324">
         <v>0</v>
       </c>
-      <c r="K324" s="9">
+      <c r="K324">
         <v>2</v>
       </c>
       <c r="M324">
         <v>15926924</v>
       </c>
-      <c r="N324" s="4" t="s">
+      <c r="N324" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O324" t="s">
@@ -21292,16 +21076,16 @@
       <c r="G325">
         <v>0</v>
       </c>
-      <c r="H325" s="4" t="s">
+      <c r="H325" s="3" t="s">
         <v>1967</v>
       </c>
-      <c r="K325" s="9">
+      <c r="K325">
         <v>2</v>
       </c>
       <c r="M325">
         <v>15926930</v>
       </c>
-      <c r="N325" s="4" t="s">
+      <c r="N325" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P325" t="s">
@@ -21342,13 +21126,13 @@
       <c r="J326" t="s">
         <v>1828</v>
       </c>
-      <c r="K326" s="9">
+      <c r="K326">
         <v>36</v>
       </c>
       <c r="M326">
         <v>15926940</v>
       </c>
-      <c r="N326" s="4" t="s">
+      <c r="N326" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P326" t="s">
@@ -21383,7 +21167,7 @@
       <c r="M327">
         <v>15926942</v>
       </c>
-      <c r="N327" s="4" t="s">
+      <c r="N327" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O327" t="s">
@@ -21421,7 +21205,7 @@
       <c r="M328">
         <v>15926944</v>
       </c>
-      <c r="N328" s="4" t="s">
+      <c r="N328" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P328" t="s">
@@ -21456,13 +21240,13 @@
       <c r="G329">
         <v>0</v>
       </c>
-      <c r="H329" s="4" t="s">
+      <c r="H329" s="3" t="s">
         <v>1968</v>
       </c>
       <c r="M329">
         <v>15926950</v>
       </c>
-      <c r="N329" s="4" t="s">
+      <c r="N329" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O329" t="s">
@@ -21503,13 +21287,13 @@
       <c r="G330">
         <v>0</v>
       </c>
-      <c r="K330" s="9">
+      <c r="K330">
         <v>2</v>
       </c>
       <c r="M330">
         <v>15926952</v>
       </c>
-      <c r="N330" s="4" t="s">
+      <c r="N330" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O330" t="s">
@@ -21547,7 +21331,7 @@
       <c r="M331">
         <v>15926957</v>
       </c>
-      <c r="N331" s="4" t="s">
+      <c r="N331" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O331" t="s">
@@ -21591,7 +21375,7 @@
       <c r="M332">
         <v>15926959</v>
       </c>
-      <c r="N332" s="4" t="s">
+      <c r="N332" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O332" t="s">
@@ -21629,7 +21413,7 @@
       <c r="G333">
         <v>0</v>
       </c>
-      <c r="H333" s="4" t="s">
+      <c r="H333" s="3" t="s">
         <v>1969</v>
       </c>
       <c r="I333" t="s">
@@ -21641,7 +21425,7 @@
       <c r="M333">
         <v>15926967</v>
       </c>
-      <c r="N333" s="4" t="s">
+      <c r="N333" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P333" t="s">
@@ -21670,25 +21454,22 @@
       <c r="D334" t="s">
         <v>1420</v>
       </c>
-      <c r="E334" t="s">
-        <v>1421</v>
-      </c>
       <c r="F334" t="s">
         <v>1421</v>
       </c>
       <c r="G334">
         <v>0</v>
       </c>
-      <c r="H334" s="4" t="s">
+      <c r="H334" s="3" t="s">
         <v>1970</v>
       </c>
-      <c r="K334" s="9">
+      <c r="K334">
         <v>2</v>
       </c>
       <c r="M334">
         <v>15926975</v>
       </c>
-      <c r="N334" s="4" t="s">
+      <c r="N334" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O334" t="s">
@@ -21732,7 +21513,7 @@
       <c r="M335">
         <v>15926988</v>
       </c>
-      <c r="N335" s="4" t="s">
+      <c r="N335" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P335" t="s">
@@ -21770,16 +21551,16 @@
       <c r="G336">
         <v>0</v>
       </c>
-      <c r="H336" s="4" t="s">
+      <c r="H336" s="3" t="s">
         <v>1971</v>
       </c>
-      <c r="K336" s="9">
+      <c r="K336">
         <v>6</v>
       </c>
       <c r="M336">
         <v>15926989</v>
       </c>
-      <c r="N336" s="4" t="s">
+      <c r="N336" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O336" t="s">
@@ -21820,16 +21601,16 @@
       <c r="G337">
         <v>0</v>
       </c>
-      <c r="H337" s="4" t="s">
+      <c r="H337" s="3" t="s">
         <v>1972</v>
       </c>
-      <c r="K337" s="9">
+      <c r="K337">
         <v>4</v>
       </c>
       <c r="M337">
         <v>15926993</v>
       </c>
-      <c r="N337" s="4" t="s">
+      <c r="N337" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O337" t="s">
@@ -21870,7 +21651,7 @@
       <c r="M338">
         <v>15927006</v>
       </c>
-      <c r="N338" s="4" t="s">
+      <c r="N338" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P338" t="s">
@@ -21899,28 +21680,25 @@
       <c r="D339" t="s">
         <v>1441</v>
       </c>
-      <c r="E339" t="s">
-        <v>1442</v>
-      </c>
       <c r="F339" t="s">
         <v>1442</v>
       </c>
       <c r="G339">
         <v>0</v>
       </c>
-      <c r="H339" s="4" t="s">
+      <c r="H339" s="3" t="s">
         <v>1973</v>
       </c>
       <c r="I339" t="s">
         <v>1763</v>
       </c>
-      <c r="K339" s="9">
+      <c r="K339">
         <v>2</v>
       </c>
       <c r="M339">
         <v>15927008</v>
       </c>
-      <c r="N339" s="4" t="s">
+      <c r="N339" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P339" t="s">
@@ -21958,7 +21736,7 @@
       <c r="M340">
         <v>15927014</v>
       </c>
-      <c r="N340" s="4" t="s">
+      <c r="N340" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O340" t="s">
@@ -21996,13 +21774,13 @@
       <c r="G341">
         <v>0</v>
       </c>
-      <c r="K341" s="9">
+      <c r="K341">
         <v>6</v>
       </c>
       <c r="M341">
         <v>15927019</v>
       </c>
-      <c r="N341" s="4" t="s">
+      <c r="N341" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P341" t="s">
@@ -22040,16 +21818,16 @@
       <c r="G342">
         <v>0</v>
       </c>
-      <c r="H342" s="4" t="s">
+      <c r="H342" s="3" t="s">
         <v>1974</v>
       </c>
-      <c r="K342" s="9">
+      <c r="K342">
         <v>6</v>
       </c>
       <c r="M342">
         <v>15927022</v>
       </c>
-      <c r="N342" s="4" t="s">
+      <c r="N342" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O342" t="s">
@@ -22087,7 +21865,7 @@
       <c r="M343">
         <v>15927031</v>
       </c>
-      <c r="N343" s="4" t="s">
+      <c r="N343" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P343" t="s">
@@ -22122,7 +21900,7 @@
       <c r="M344">
         <v>15927055</v>
       </c>
-      <c r="N344" s="4" t="s">
+      <c r="N344" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O344" t="s">
@@ -22154,28 +21932,25 @@
       <c r="D345" t="s">
         <v>1465</v>
       </c>
-      <c r="E345" t="s">
-        <v>1466</v>
-      </c>
       <c r="F345" t="s">
         <v>1466</v>
       </c>
       <c r="G345">
         <v>0</v>
       </c>
-      <c r="H345" s="4" t="s">
+      <c r="H345" s="3" t="s">
         <v>1975</v>
       </c>
-      <c r="K345" s="9">
+      <c r="K345">
         <v>22</v>
       </c>
-      <c r="L345" s="9" t="s">
+      <c r="L345" t="s">
         <v>1467</v>
       </c>
       <c r="M345">
         <v>15927057</v>
       </c>
-      <c r="N345" s="4" t="s">
+      <c r="N345" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O345" t="s">
@@ -22216,16 +21991,16 @@
       <c r="G346">
         <v>0</v>
       </c>
-      <c r="H346" s="4" t="s">
+      <c r="H346" s="3" t="s">
         <v>1976</v>
       </c>
-      <c r="K346" s="9">
+      <c r="K346">
         <v>21</v>
       </c>
       <c r="M346">
         <v>15927058</v>
       </c>
-      <c r="N346" s="4" t="s">
+      <c r="N346" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P346" t="s">
@@ -22251,25 +22026,22 @@
       <c r="D347" t="s">
         <v>1474</v>
       </c>
-      <c r="E347" t="s">
-        <v>1475</v>
-      </c>
       <c r="F347" t="s">
         <v>1475</v>
       </c>
       <c r="G347">
         <v>0</v>
       </c>
-      <c r="H347" s="4" t="s">
+      <c r="H347" s="3" t="s">
         <v>1977</v>
       </c>
-      <c r="K347" s="9">
+      <c r="K347">
         <v>2</v>
       </c>
       <c r="M347">
         <v>15927065</v>
       </c>
-      <c r="N347" s="4" t="s">
+      <c r="N347" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O347" t="s">
@@ -22310,16 +22082,16 @@
       <c r="G348">
         <v>0</v>
       </c>
-      <c r="H348" s="4" t="s">
+      <c r="H348" s="3" t="s">
         <v>1978</v>
       </c>
-      <c r="L348" s="9" t="s">
+      <c r="L348" t="s">
         <v>616</v>
       </c>
       <c r="M348">
         <v>15927072</v>
       </c>
-      <c r="N348" s="4" t="s">
+      <c r="N348" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O348" t="s">
@@ -22357,16 +22129,16 @@
       <c r="G349">
         <v>0</v>
       </c>
-      <c r="H349" s="4" t="s">
+      <c r="H349" s="3" t="s">
         <v>1979</v>
       </c>
-      <c r="K349" s="9">
+      <c r="K349">
         <v>2</v>
       </c>
       <c r="M349">
         <v>15927075</v>
       </c>
-      <c r="N349" s="4" t="s">
+      <c r="N349" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O349" t="s">
@@ -22407,16 +22179,16 @@
       <c r="G350">
         <v>0</v>
       </c>
-      <c r="H350" s="4" t="s">
+      <c r="H350" s="3" t="s">
         <v>1980</v>
       </c>
-      <c r="K350" s="9">
+      <c r="K350">
         <v>52</v>
       </c>
       <c r="M350">
         <v>15927077</v>
       </c>
-      <c r="N350" s="4" t="s">
+      <c r="N350" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O350" t="s">
@@ -22463,7 +22235,7 @@
       <c r="M351">
         <v>15927084</v>
       </c>
-      <c r="N351" s="4" t="s">
+      <c r="N351" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O351" t="s">
@@ -22504,7 +22276,7 @@
       <c r="M352">
         <v>15927090</v>
       </c>
-      <c r="N352" s="4" t="s">
+      <c r="N352" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O352" t="s">
@@ -22545,19 +22317,19 @@
       <c r="G353">
         <v>0</v>
       </c>
-      <c r="H353" s="4" t="s">
+      <c r="H353" s="3" t="s">
         <v>1981</v>
       </c>
       <c r="J353" t="s">
         <v>1832</v>
       </c>
-      <c r="K353" s="9">
+      <c r="K353">
         <v>37</v>
       </c>
       <c r="M353">
         <v>15927092</v>
       </c>
-      <c r="N353" s="4" t="s">
+      <c r="N353" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O353" t="s">
@@ -22601,7 +22373,7 @@
       <c r="M354">
         <v>15927093</v>
       </c>
-      <c r="N354" s="4" t="s">
+      <c r="N354" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P354" t="s">
@@ -22639,7 +22411,7 @@
       <c r="M355">
         <v>15927108</v>
       </c>
-      <c r="N355" s="4" t="s">
+      <c r="N355" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P355" t="s">
@@ -22677,19 +22449,19 @@
       <c r="G356">
         <v>0</v>
       </c>
-      <c r="H356" s="4" t="s">
+      <c r="H356" s="3" t="s">
         <v>1982</v>
       </c>
       <c r="J356" t="s">
         <v>1833</v>
       </c>
-      <c r="K356" s="9">
+      <c r="K356">
         <v>2</v>
       </c>
       <c r="M356">
         <v>15927114</v>
       </c>
-      <c r="N356" s="4" t="s">
+      <c r="N356" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O356" t="s">
@@ -22730,13 +22502,13 @@
       <c r="G357">
         <v>0</v>
       </c>
-      <c r="K357" s="9">
+      <c r="K357">
         <v>2</v>
       </c>
       <c r="M357">
         <v>15927128</v>
       </c>
-      <c r="N357" s="4" t="s">
+      <c r="N357" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O357" t="s">
@@ -22774,7 +22546,7 @@
       <c r="M358">
         <v>15927135</v>
       </c>
-      <c r="N358" s="4" t="s">
+      <c r="N358" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O358" t="s">
@@ -22812,13 +22584,13 @@
       <c r="G359">
         <v>0</v>
       </c>
-      <c r="H359" s="4" t="s">
+      <c r="H359" s="3" t="s">
         <v>1983</v>
       </c>
       <c r="M359">
         <v>15927143</v>
       </c>
-      <c r="N359" s="4" t="s">
+      <c r="N359" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O359" t="s">
@@ -22859,7 +22631,7 @@
       <c r="M360">
         <v>15927147</v>
       </c>
-      <c r="N360" s="4" t="s">
+      <c r="N360" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P360" t="s">
@@ -22897,7 +22669,7 @@
       <c r="M361">
         <v>15927148</v>
       </c>
-      <c r="N361" s="4" t="s">
+      <c r="N361" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O361" t="s">
@@ -22938,16 +22710,16 @@
       <c r="G362">
         <v>0</v>
       </c>
-      <c r="H362" s="4" t="s">
+      <c r="H362" s="3" t="s">
         <v>1984</v>
       </c>
-      <c r="K362" s="9">
+      <c r="K362">
         <v>2</v>
       </c>
       <c r="M362">
         <v>15927149</v>
       </c>
-      <c r="N362" s="4" t="s">
+      <c r="N362" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O362" t="s">
@@ -22985,13 +22757,13 @@
       <c r="G363">
         <v>0</v>
       </c>
-      <c r="L363" s="9" t="s">
+      <c r="L363" t="s">
         <v>1547</v>
       </c>
       <c r="M363">
         <v>15927159</v>
       </c>
-      <c r="N363" s="4" t="s">
+      <c r="N363" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O363" t="s">
@@ -23026,19 +22798,19 @@
       <c r="G364">
         <v>0</v>
       </c>
-      <c r="H364" s="4" t="s">
+      <c r="H364" s="3" t="s">
         <v>1985</v>
       </c>
       <c r="J364" t="s">
         <v>1834</v>
       </c>
-      <c r="K364" s="9">
+      <c r="K364">
         <v>2</v>
       </c>
       <c r="M364">
         <v>15927161</v>
       </c>
-      <c r="N364" s="4" t="s">
+      <c r="N364" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O364" t="s">
@@ -23076,13 +22848,13 @@
       <c r="G365">
         <v>0</v>
       </c>
-      <c r="H365" s="4" t="s">
+      <c r="H365" s="3" t="s">
         <v>1986</v>
       </c>
       <c r="M365">
         <v>15927163</v>
       </c>
-      <c r="N365" s="4" t="s">
+      <c r="N365" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O365" t="s">
@@ -23123,13 +22895,13 @@
       <c r="G366">
         <v>0</v>
       </c>
-      <c r="K366" s="9">
+      <c r="K366">
         <v>2</v>
       </c>
       <c r="M366">
         <v>15927170</v>
       </c>
-      <c r="N366" s="4" t="s">
+      <c r="N366" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O366" t="s">
@@ -23170,7 +22942,7 @@
       <c r="M367">
         <v>15927173</v>
       </c>
-      <c r="N367" s="4" t="s">
+      <c r="N367" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P367" t="s">
@@ -23208,13 +22980,13 @@
       <c r="G368">
         <v>0</v>
       </c>
-      <c r="K368" s="9">
+      <c r="K368">
         <v>13</v>
       </c>
       <c r="M368">
         <v>15927178</v>
       </c>
-      <c r="N368" s="4" t="s">
+      <c r="N368" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O368" t="s">
@@ -23246,25 +23018,22 @@
       <c r="D369" t="s">
         <v>1570</v>
       </c>
-      <c r="E369" t="s">
-        <v>1571</v>
-      </c>
       <c r="F369" t="s">
         <v>1571</v>
       </c>
       <c r="G369">
         <v>0</v>
       </c>
-      <c r="H369" s="4" t="s">
+      <c r="H369" s="3" t="s">
         <v>1987</v>
       </c>
-      <c r="K369" s="9">
+      <c r="K369">
         <v>24</v>
       </c>
       <c r="M369">
         <v>15927190</v>
       </c>
-      <c r="N369" s="4" t="s">
+      <c r="N369" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O369" t="s">
@@ -23302,13 +23071,13 @@
       <c r="G370">
         <v>0</v>
       </c>
-      <c r="K370" s="9">
+      <c r="K370">
         <v>52</v>
       </c>
       <c r="M370">
         <v>15927195</v>
       </c>
-      <c r="N370" s="4" t="s">
+      <c r="N370" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P370" t="s">
@@ -23349,13 +23118,13 @@
       <c r="J371" t="s">
         <v>1835</v>
       </c>
-      <c r="K371" s="9">
+      <c r="K371">
         <v>70</v>
       </c>
       <c r="M371">
         <v>15927199</v>
       </c>
-      <c r="N371" s="4" t="s">
+      <c r="N371" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O371" t="s">
@@ -23399,7 +23168,7 @@
       <c r="M372">
         <v>15927200</v>
       </c>
-      <c r="N372" s="4" t="s">
+      <c r="N372" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P372" t="s">
@@ -23428,22 +23197,19 @@
       <c r="D373" t="s">
         <v>1586</v>
       </c>
-      <c r="E373" t="s">
-        <v>1587</v>
-      </c>
       <c r="F373" t="s">
         <v>1587</v>
       </c>
       <c r="G373">
         <v>0</v>
       </c>
-      <c r="K373" s="9">
+      <c r="K373">
         <v>2</v>
       </c>
       <c r="M373">
         <v>15927214</v>
       </c>
-      <c r="N373" s="4" t="s">
+      <c r="N373" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O373" t="s">
@@ -23475,16 +23241,13 @@
       <c r="D374" t="s">
         <v>1590</v>
       </c>
-      <c r="E374" t="s">
-        <v>1591</v>
-      </c>
       <c r="F374" t="s">
         <v>1591</v>
       </c>
       <c r="G374">
         <v>0</v>
       </c>
-      <c r="H374" s="4" t="s">
+      <c r="H374" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="I374" t="s">
@@ -23493,13 +23256,13 @@
       <c r="J374" t="s">
         <v>1837</v>
       </c>
-      <c r="K374" s="9">
+      <c r="K374">
         <v>5</v>
       </c>
       <c r="M374">
         <v>15927228</v>
       </c>
-      <c r="N374" s="4" t="s">
+      <c r="N374" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O374" t="s">
@@ -23531,16 +23294,13 @@
       <c r="D375" t="s">
         <v>1593</v>
       </c>
-      <c r="E375" t="s">
-        <v>1594</v>
-      </c>
       <c r="F375" t="s">
         <v>1594</v>
       </c>
       <c r="G375">
         <v>0</v>
       </c>
-      <c r="H375" s="4" t="s">
+      <c r="H375" s="3" t="s">
         <v>1989</v>
       </c>
       <c r="I375" t="s">
@@ -23549,13 +23309,13 @@
       <c r="J375" t="s">
         <v>1838</v>
       </c>
-      <c r="K375" s="9">
+      <c r="K375">
         <v>2</v>
       </c>
       <c r="M375">
         <v>15927232</v>
       </c>
-      <c r="N375" s="4" t="s">
+      <c r="N375" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O375" t="s">
@@ -23587,9 +23347,6 @@
       <c r="D376" t="s">
         <v>1597</v>
       </c>
-      <c r="E376" t="s">
-        <v>1598</v>
-      </c>
       <c r="F376" t="s">
         <v>1598</v>
       </c>
@@ -23602,7 +23359,7 @@
       <c r="M376">
         <v>15927245</v>
       </c>
-      <c r="N376" s="4" t="s">
+      <c r="N376" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O376" t="s">
@@ -23643,19 +23400,19 @@
       <c r="G377">
         <v>0</v>
       </c>
-      <c r="H377" s="4" t="s">
+      <c r="H377" s="3" t="s">
         <v>1984</v>
       </c>
-      <c r="K377" s="9">
+      <c r="K377">
         <v>20</v>
       </c>
-      <c r="L377" s="9" t="s">
+      <c r="L377" t="s">
         <v>1604</v>
       </c>
       <c r="M377">
         <v>15927247</v>
       </c>
-      <c r="N377" s="4" t="s">
+      <c r="N377" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O377" t="s">
@@ -23696,7 +23453,7 @@
       <c r="M378">
         <v>15927250</v>
       </c>
-      <c r="N378" s="4" t="s">
+      <c r="N378" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O378" t="s">
@@ -23737,16 +23494,16 @@
       <c r="G379">
         <v>0</v>
       </c>
-      <c r="H379" s="4" t="s">
+      <c r="H379" s="3" t="s">
         <v>1990</v>
       </c>
-      <c r="K379" s="9">
+      <c r="K379">
         <v>2</v>
       </c>
       <c r="M379">
         <v>15927256</v>
       </c>
-      <c r="N379" s="4" t="s">
+      <c r="N379" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O379" t="s">
@@ -23778,22 +23535,19 @@
       <c r="D380" t="s">
         <v>1616</v>
       </c>
-      <c r="E380" t="s">
-        <v>1617</v>
-      </c>
       <c r="F380" t="s">
         <v>1617</v>
       </c>
       <c r="G380">
         <v>0</v>
       </c>
-      <c r="L380" s="9" t="s">
+      <c r="L380" t="s">
         <v>268</v>
       </c>
       <c r="M380">
         <v>15927260</v>
       </c>
-      <c r="N380" s="4" t="s">
+      <c r="N380" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O380" t="s">
@@ -23834,13 +23588,13 @@
       <c r="G381">
         <v>0</v>
       </c>
-      <c r="K381" s="9">
+      <c r="K381">
         <v>2</v>
       </c>
       <c r="M381">
         <v>15927270</v>
       </c>
-      <c r="N381" s="4" t="s">
+      <c r="N381" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O381" t="s">
@@ -23884,7 +23638,7 @@
       <c r="M382">
         <v>15927273</v>
       </c>
-      <c r="N382" s="4" t="s">
+      <c r="N382" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P382" t="s">
@@ -23922,16 +23676,16 @@
       <c r="G383">
         <v>0</v>
       </c>
-      <c r="H383" s="4" t="s">
+      <c r="H383" s="3" t="s">
         <v>1991</v>
       </c>
-      <c r="K383" s="9">
+      <c r="K383">
         <v>6</v>
       </c>
       <c r="M383">
         <v>15927282</v>
       </c>
-      <c r="N383" s="4" t="s">
+      <c r="N383" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O383" t="s">
@@ -23975,7 +23729,7 @@
       <c r="M384">
         <v>15927283</v>
       </c>
-      <c r="N384" s="4" t="s">
+      <c r="N384" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O384" t="s">
@@ -24016,7 +23770,7 @@
       <c r="M385">
         <v>15927287</v>
       </c>
-      <c r="N385" s="4" t="s">
+      <c r="N385" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O385" t="s">
@@ -24054,13 +23808,13 @@
       <c r="G386">
         <v>0</v>
       </c>
-      <c r="H386" s="4" t="s">
+      <c r="H386" s="3" t="s">
         <v>1992</v>
       </c>
       <c r="M386">
         <v>15927288</v>
       </c>
-      <c r="N386" s="4" t="s">
+      <c r="N386" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O386" t="s">
@@ -24104,7 +23858,7 @@
       <c r="M387">
         <v>15927293</v>
       </c>
-      <c r="N387" s="4" t="s">
+      <c r="N387" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P387" t="s">
@@ -24142,16 +23896,16 @@
       <c r="G388">
         <v>0</v>
       </c>
-      <c r="H388" s="4" t="s">
+      <c r="H388" s="3" t="s">
         <v>1993</v>
       </c>
-      <c r="K388" s="9">
+      <c r="K388">
         <v>6</v>
       </c>
       <c r="M388">
         <v>15927299</v>
       </c>
-      <c r="N388" s="4" t="s">
+      <c r="N388" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O388" t="s">
@@ -24192,16 +23946,16 @@
       <c r="G389">
         <v>0</v>
       </c>
-      <c r="H389" s="4" t="s">
+      <c r="H389" s="3" t="s">
         <v>1994</v>
       </c>
-      <c r="K389" s="9">
+      <c r="K389">
         <v>2</v>
       </c>
       <c r="M389">
         <v>15927310</v>
       </c>
-      <c r="N389" s="4" t="s">
+      <c r="N389" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O389" t="s">
@@ -24245,7 +23999,7 @@
       <c r="M390">
         <v>15927329</v>
       </c>
-      <c r="N390" s="4" t="s">
+      <c r="N390" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O390" t="s">
@@ -24280,13 +24034,13 @@
       <c r="G391">
         <v>0</v>
       </c>
-      <c r="K391" s="9">
+      <c r="K391">
         <v>7</v>
       </c>
       <c r="M391">
         <v>15927337</v>
       </c>
-      <c r="N391" s="4" t="s">
+      <c r="N391" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O391" t="s">
@@ -24327,13 +24081,13 @@
       <c r="G392">
         <v>0</v>
       </c>
-      <c r="H392" s="4" t="s">
+      <c r="H392" s="3" t="s">
         <v>1995</v>
       </c>
       <c r="M392">
         <v>15927341</v>
       </c>
-      <c r="N392" s="4" t="s">
+      <c r="N392" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O392" t="s">
@@ -24365,9 +24119,6 @@
       <c r="D393" t="s">
         <v>1673</v>
       </c>
-      <c r="E393" t="s">
-        <v>1674</v>
-      </c>
       <c r="F393" t="s">
         <v>1674</v>
       </c>
@@ -24377,7 +24128,7 @@
       <c r="M393">
         <v>15927349</v>
       </c>
-      <c r="N393" s="4" t="s">
+      <c r="N393" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P393" t="s">
@@ -24412,7 +24163,7 @@
       <c r="M394">
         <v>15927363</v>
       </c>
-      <c r="N394" s="4" t="s">
+      <c r="N394" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P394" t="s">
@@ -24447,19 +24198,19 @@
       <c r="G395">
         <v>0</v>
       </c>
-      <c r="H395" s="4" t="s">
+      <c r="H395" s="3" t="s">
         <v>1996</v>
       </c>
       <c r="J395" t="s">
         <v>1841</v>
       </c>
-      <c r="K395" s="9">
+      <c r="K395">
         <v>2</v>
       </c>
       <c r="M395">
         <v>15927371</v>
       </c>
-      <c r="N395" s="4" t="s">
+      <c r="N395" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O395" t="s">
@@ -24491,9 +24242,6 @@
       <c r="D396" t="s">
         <v>1685</v>
       </c>
-      <c r="E396" t="s">
-        <v>1686</v>
-      </c>
       <c r="F396" t="s">
         <v>1686</v>
       </c>
@@ -24503,7 +24251,7 @@
       <c r="M396">
         <v>15927379</v>
       </c>
-      <c r="N396" s="4" t="s">
+      <c r="N396" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P396" t="s">
@@ -24541,16 +24289,16 @@
       <c r="G397">
         <v>0</v>
       </c>
-      <c r="H397" s="4" t="s">
+      <c r="H397" s="3" t="s">
         <v>1997</v>
       </c>
-      <c r="K397" s="9">
+      <c r="K397">
         <v>52</v>
       </c>
       <c r="M397">
         <v>15927390</v>
       </c>
-      <c r="N397" s="4" t="s">
+      <c r="N397" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O397" t="s">
@@ -24594,7 +24342,7 @@
       <c r="M398">
         <v>15927392</v>
       </c>
-      <c r="N398" s="4" t="s">
+      <c r="N398" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P398" t="s">
@@ -24632,7 +24380,7 @@
       <c r="M399">
         <v>15927395</v>
       </c>
-      <c r="N399" s="4" t="s">
+      <c r="N399" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="P399" t="s">
@@ -24667,13 +24415,13 @@
       <c r="G400">
         <v>0</v>
       </c>
-      <c r="K400" s="9">
+      <c r="K400">
         <v>24</v>
       </c>
       <c r="M400">
         <v>15927396</v>
       </c>
-      <c r="N400" s="4" t="s">
+      <c r="N400" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O400" t="s">
@@ -24711,13 +24459,13 @@
       <c r="G401">
         <v>0</v>
       </c>
-      <c r="K401" s="9">
+      <c r="K401">
         <v>2</v>
       </c>
       <c r="M401">
         <v>15927398</v>
       </c>
-      <c r="N401" s="4" t="s">
+      <c r="N401" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="O401" t="s">
@@ -24737,6 +24485,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S401" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -24792,7 +24541,7 @@
       <c r="A5">
         <v>52</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>2006</v>
       </c>
     </row>
@@ -24976,7 +24725,7 @@
       <c r="A28">
         <v>10</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>2029</v>
       </c>
     </row>
@@ -25120,7 +24869,7 @@
       <c r="A46">
         <v>21</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>2047</v>
       </c>
     </row>
@@ -25128,7 +24877,7 @@
       <c r="A47">
         <v>21</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>2048</v>
       </c>
     </row>
@@ -25136,7 +24885,7 @@
       <c r="A48">
         <v>21</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>2049</v>
       </c>
     </row>
@@ -25344,7 +25093,7 @@
       <c r="A74">
         <v>36</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>2074</v>
       </c>
     </row>
@@ -25376,7 +25125,7 @@
       <c r="A78">
         <v>30</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>2078</v>
       </c>
     </row>
@@ -25384,7 +25133,7 @@
       <c r="A79">
         <v>30</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>2079</v>
       </c>
     </row>
@@ -25424,7 +25173,7 @@
       <c r="A84">
         <v>56</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>2083</v>
       </c>
     </row>
@@ -25576,7 +25325,7 @@
       <c r="A103">
         <v>28</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="5" t="s">
         <v>2101</v>
       </c>
     </row>
@@ -25584,7 +25333,7 @@
       <c r="A104">
         <v>28</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>2102</v>
       </c>
     </row>
@@ -25592,7 +25341,7 @@
       <c r="A105">
         <v>28</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>2103</v>
       </c>
     </row>
@@ -25672,7 +25421,7 @@
       <c r="A115">
         <v>44</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="5" t="s">
         <v>2113</v>
       </c>
     </row>
